--- a/cafe24 양식/봉지라면.xlsx
+++ b/cafe24 양식/봉지라면.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20170801_Tongup_2\cafe24 양식\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="일괄등록 양식" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="656">
   <si>
     <t>상품코드</t>
   </si>
@@ -2029,6 +2034,14 @@
   </si>
   <si>
     <t>7941_220x220.jpg</t>
+  </si>
+  <si>
+    <t>라면 스낵 커피 음료수 가공식품 마트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2880,6 +2893,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2927,7 +2943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2962,7 +2978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3173,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT6" sqref="BT6"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BT2" sqref="BT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3317,7 +3333,7 @@
       <c r="AO1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="14" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="13" t="s">
@@ -3431,19 +3447,19 @@
       <c r="CA1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="12" t="s">
+      <c r="CB1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="12" t="s">
+      <c r="CC1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CD1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CE1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="12" t="s">
+      <c r="CF1" s="14" t="s">
         <v>83</v>
       </c>
       <c r="CG1" s="12" t="s">
@@ -3533,7 +3549,9 @@
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
+      <c r="AP2" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ2" s="5"/>
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
@@ -3607,8 +3625,12 @@
       <c r="CC2" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD2" s="5"/>
-      <c r="CE2" s="5"/>
+      <c r="CD2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF2" s="8" t="s">
         <v>175</v>
       </c>
@@ -3695,7 +3717,9 @@
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
+      <c r="AP3" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
@@ -3769,8 +3793,12 @@
       <c r="CC3" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
+      <c r="CD3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE3" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF3" s="8" t="s">
         <v>176</v>
       </c>
@@ -3857,7 +3885,9 @@
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
+      <c r="AP4" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
@@ -3931,8 +3961,12 @@
       <c r="CC4" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
+      <c r="CD4" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE4" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF4" s="8" t="s">
         <v>177</v>
       </c>
@@ -4019,7 +4053,9 @@
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
+      <c r="AP5" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
@@ -4093,8 +4129,12 @@
       <c r="CC5" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
+      <c r="CD5" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE5" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF5" s="8" t="s">
         <v>178</v>
       </c>
@@ -4181,7 +4221,9 @@
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
+      <c r="AP6" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
@@ -4255,8 +4297,12 @@
       <c r="CC6" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD6" s="5"/>
-      <c r="CE6" s="5"/>
+      <c r="CD6" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE6" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF6" s="8" t="s">
         <v>179</v>
       </c>
@@ -4343,7 +4389,9 @@
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
+      <c r="AP7" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ7" s="5"/>
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
@@ -4417,8 +4465,12 @@
       <c r="CC7" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD7" s="5"/>
-      <c r="CE7" s="5"/>
+      <c r="CD7" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE7" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF7" s="8" t="s">
         <v>180</v>
       </c>
@@ -4505,7 +4557,9 @@
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
+      <c r="AP8" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
@@ -4579,8 +4633,12 @@
       <c r="CC8" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD8" s="5"/>
-      <c r="CE8" s="5"/>
+      <c r="CD8" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF8" s="8" t="s">
         <v>181</v>
       </c>
@@ -4667,7 +4725,9 @@
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
+      <c r="AP9" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
@@ -4741,8 +4801,12 @@
       <c r="CC9" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD9" s="5"/>
-      <c r="CE9" s="5"/>
+      <c r="CD9" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE9" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF9" s="8" t="s">
         <v>182</v>
       </c>
@@ -4829,7 +4893,9 @@
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
+      <c r="AP10" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
@@ -4903,8 +4969,12 @@
       <c r="CC10" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD10" s="5"/>
-      <c r="CE10" s="5"/>
+      <c r="CD10" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE10" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF10" s="8" t="s">
         <v>183</v>
       </c>
@@ -4991,7 +5061,9 @@
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
+      <c r="AP11" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
@@ -5065,8 +5137,12 @@
       <c r="CC11" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD11" s="5"/>
-      <c r="CE11" s="5"/>
+      <c r="CD11" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE11" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF11" s="8" t="s">
         <v>184</v>
       </c>
@@ -5153,7 +5229,9 @@
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
+      <c r="AP12" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
@@ -5227,8 +5305,12 @@
       <c r="CC12" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD12" s="5"/>
-      <c r="CE12" s="5"/>
+      <c r="CD12" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE12" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF12" s="8" t="s">
         <v>185</v>
       </c>
@@ -5315,7 +5397,9 @@
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
+      <c r="AP13" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
@@ -5389,8 +5473,12 @@
       <c r="CC13" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD13" s="5"/>
-      <c r="CE13" s="5"/>
+      <c r="CD13" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE13" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF13" s="8" t="s">
         <v>186</v>
       </c>
@@ -5477,7 +5565,9 @@
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
+      <c r="AP14" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
@@ -5551,8 +5641,12 @@
       <c r="CC14" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD14" s="5"/>
-      <c r="CE14" s="5"/>
+      <c r="CD14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE14" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF14" s="8" t="s">
         <v>187</v>
       </c>
@@ -5639,7 +5733,9 @@
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
+      <c r="AP15" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
@@ -5713,8 +5809,12 @@
       <c r="CC15" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD15" s="5"/>
-      <c r="CE15" s="5"/>
+      <c r="CD15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE15" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF15" s="8" t="s">
         <v>188</v>
       </c>
@@ -5801,7 +5901,9 @@
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
+      <c r="AP16" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
@@ -5875,8 +5977,12 @@
       <c r="CC16" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD16" s="5"/>
-      <c r="CE16" s="5"/>
+      <c r="CD16" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE16" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF16" s="8" t="s">
         <v>189</v>
       </c>
@@ -5963,7 +6069,9 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
+      <c r="AP17" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
@@ -6037,8 +6145,12 @@
       <c r="CC17" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD17" s="5"/>
-      <c r="CE17" s="5"/>
+      <c r="CD17" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE17" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF17" s="8" t="s">
         <v>190</v>
       </c>
@@ -6125,7 +6237,9 @@
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
+      <c r="AP18" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
@@ -6199,8 +6313,12 @@
       <c r="CC18" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD18" s="5"/>
-      <c r="CE18" s="5"/>
+      <c r="CD18" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE18" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF18" s="8" t="s">
         <v>191</v>
       </c>
@@ -6287,7 +6405,9 @@
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
+      <c r="AP19" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
@@ -6361,8 +6481,12 @@
       <c r="CC19" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD19" s="5"/>
-      <c r="CE19" s="5"/>
+      <c r="CD19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE19" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF19" s="8" t="s">
         <v>192</v>
       </c>
@@ -6449,7 +6573,9 @@
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
+      <c r="AP20" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -6523,8 +6649,12 @@
       <c r="CC20" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD20" s="5"/>
-      <c r="CE20" s="5"/>
+      <c r="CD20" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE20" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF20" s="8" t="s">
         <v>193</v>
       </c>
@@ -6611,7 +6741,9 @@
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
+      <c r="AP21" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
@@ -6685,8 +6817,12 @@
       <c r="CC21" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD21" s="5"/>
-      <c r="CE21" s="5"/>
+      <c r="CD21" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE21" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF21" s="8" t="s">
         <v>194</v>
       </c>
@@ -6773,7 +6909,9 @@
       <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
+      <c r="AP22" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
@@ -6847,8 +6985,12 @@
       <c r="CC22" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD22" s="5"/>
-      <c r="CE22" s="5"/>
+      <c r="CD22" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE22" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF22" s="8" t="s">
         <v>195</v>
       </c>
@@ -6935,7 +7077,9 @@
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
+      <c r="AP23" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
@@ -7009,8 +7153,12 @@
       <c r="CC23" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD23" s="5"/>
-      <c r="CE23" s="5"/>
+      <c r="CD23" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE23" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF23" s="8" t="s">
         <v>196</v>
       </c>
@@ -7097,7 +7245,9 @@
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
+      <c r="AP24" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
@@ -7171,8 +7321,12 @@
       <c r="CC24" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD24" s="5"/>
-      <c r="CE24" s="5"/>
+      <c r="CD24" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE24" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF24" s="8" t="s">
         <v>197</v>
       </c>
@@ -7259,7 +7413,9 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
+      <c r="AP25" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
@@ -7333,8 +7489,12 @@
       <c r="CC25" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD25" s="5"/>
-      <c r="CE25" s="5"/>
+      <c r="CD25" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE25" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF25" s="8" t="s">
         <v>198</v>
       </c>
@@ -7421,7 +7581,9 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
+      <c r="AP26" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
@@ -7495,8 +7657,12 @@
       <c r="CC26" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD26" s="5"/>
-      <c r="CE26" s="5"/>
+      <c r="CD26" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE26" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF26" s="8" t="s">
         <v>199</v>
       </c>
@@ -7583,7 +7749,9 @@
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
+      <c r="AP27" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
       <c r="AS27" s="5"/>
@@ -7657,8 +7825,12 @@
       <c r="CC27" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD27" s="5"/>
-      <c r="CE27" s="5"/>
+      <c r="CD27" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE27" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF27" s="8" t="s">
         <v>200</v>
       </c>
@@ -7745,7 +7917,9 @@
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
+      <c r="AP28" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
       <c r="AS28" s="5"/>
@@ -7819,8 +7993,12 @@
       <c r="CC28" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD28" s="5"/>
-      <c r="CE28" s="5"/>
+      <c r="CD28" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE28" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF28" s="8" t="s">
         <v>201</v>
       </c>
@@ -7907,7 +8085,9 @@
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
+      <c r="AP29" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
@@ -7981,8 +8161,12 @@
       <c r="CC29" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD29" s="5"/>
-      <c r="CE29" s="5"/>
+      <c r="CD29" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE29" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF29" s="8" t="s">
         <v>202</v>
       </c>
@@ -8069,7 +8253,9 @@
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
+      <c r="AP30" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
@@ -8143,8 +8329,12 @@
       <c r="CC30" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD30" s="5"/>
-      <c r="CE30" s="5"/>
+      <c r="CD30" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE30" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF30" s="8" t="s">
         <v>203</v>
       </c>
@@ -8231,7 +8421,9 @@
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
+      <c r="AP31" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
@@ -8305,8 +8497,12 @@
       <c r="CC31" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD31" s="5"/>
-      <c r="CE31" s="5"/>
+      <c r="CD31" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE31" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF31" s="8" t="s">
         <v>204</v>
       </c>
@@ -8393,7 +8589,9 @@
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
+      <c r="AP32" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
@@ -8467,8 +8665,12 @@
       <c r="CC32" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD32" s="5"/>
-      <c r="CE32" s="5"/>
+      <c r="CD32" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE32" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF32" s="8" t="s">
         <v>205</v>
       </c>
@@ -8555,7 +8757,9 @@
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
+      <c r="AP33" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
@@ -8629,8 +8833,12 @@
       <c r="CC33" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD33" s="5"/>
-      <c r="CE33" s="5"/>
+      <c r="CD33" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE33" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF33" s="8" t="s">
         <v>206</v>
       </c>
@@ -8717,7 +8925,9 @@
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
+      <c r="AP34" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
@@ -8791,8 +9001,12 @@
       <c r="CC34" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD34" s="5"/>
-      <c r="CE34" s="5"/>
+      <c r="CD34" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE34" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF34" s="8" t="s">
         <v>207</v>
       </c>
@@ -8879,7 +9093,9 @@
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
+      <c r="AP35" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
@@ -8953,8 +9169,12 @@
       <c r="CC35" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD35" s="5"/>
-      <c r="CE35" s="5"/>
+      <c r="CD35" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE35" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF35" s="8" t="s">
         <v>208</v>
       </c>
@@ -9041,7 +9261,9 @@
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
+      <c r="AP36" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
@@ -9115,8 +9337,12 @@
       <c r="CC36" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD36" s="5"/>
-      <c r="CE36" s="5"/>
+      <c r="CD36" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE36" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF36" s="8" t="s">
         <v>209</v>
       </c>
@@ -9203,7 +9429,9 @@
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
+      <c r="AP37" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
@@ -9277,8 +9505,12 @@
       <c r="CC37" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD37" s="5"/>
-      <c r="CE37" s="5"/>
+      <c r="CD37" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE37" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF37" s="8" t="s">
         <v>210</v>
       </c>
@@ -9365,7 +9597,9 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
+      <c r="AP38" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
       <c r="AS38" s="5"/>
@@ -9439,8 +9673,12 @@
       <c r="CC38" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD38" s="5"/>
-      <c r="CE38" s="5"/>
+      <c r="CD38" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE38" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF38" s="8" t="s">
         <v>211</v>
       </c>
@@ -9527,7 +9765,9 @@
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
+      <c r="AP39" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5"/>
       <c r="AS39" s="5"/>
@@ -9601,8 +9841,12 @@
       <c r="CC39" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD39" s="5"/>
-      <c r="CE39" s="5"/>
+      <c r="CD39" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE39" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF39" s="8" t="s">
         <v>212</v>
       </c>
@@ -9689,7 +9933,9 @@
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
+      <c r="AP40" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="5"/>
       <c r="AS40" s="5"/>
@@ -9763,8 +10009,12 @@
       <c r="CC40" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD40" s="5"/>
-      <c r="CE40" s="5"/>
+      <c r="CD40" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE40" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF40" s="8" t="s">
         <v>213</v>
       </c>
@@ -9851,7 +10101,9 @@
       <c r="AM41" s="5"/>
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
+      <c r="AP41" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ41" s="5"/>
       <c r="AR41" s="5"/>
       <c r="AS41" s="5"/>
@@ -9925,8 +10177,12 @@
       <c r="CC41" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD41" s="5"/>
-      <c r="CE41" s="5"/>
+      <c r="CD41" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE41" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF41" s="8" t="s">
         <v>214</v>
       </c>
@@ -10013,7 +10269,9 @@
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
+      <c r="AP42" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ42" s="5"/>
       <c r="AR42" s="5"/>
       <c r="AS42" s="5"/>
@@ -10087,8 +10345,12 @@
       <c r="CC42" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD42" s="5"/>
-      <c r="CE42" s="5"/>
+      <c r="CD42" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE42" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF42" s="8" t="s">
         <v>215</v>
       </c>
@@ -10175,7 +10437,9 @@
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
+      <c r="AP43" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ43" s="5"/>
       <c r="AR43" s="5"/>
       <c r="AS43" s="5"/>
@@ -10249,8 +10513,12 @@
       <c r="CC43" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD43" s="5"/>
-      <c r="CE43" s="5"/>
+      <c r="CD43" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE43" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF43" s="8" t="s">
         <v>216</v>
       </c>
@@ -10337,7 +10605,9 @@
       <c r="AM44" s="5"/>
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
+      <c r="AP44" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ44" s="5"/>
       <c r="AR44" s="5"/>
       <c r="AS44" s="5"/>
@@ -10411,8 +10681,12 @@
       <c r="CC44" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD44" s="5"/>
-      <c r="CE44" s="5"/>
+      <c r="CD44" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE44" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF44" s="8" t="s">
         <v>217</v>
       </c>
@@ -10499,7 +10773,9 @@
       <c r="AM45" s="5"/>
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
+      <c r="AP45" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ45" s="5"/>
       <c r="AR45" s="5"/>
       <c r="AS45" s="5"/>
@@ -10573,8 +10849,12 @@
       <c r="CC45" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD45" s="5"/>
-      <c r="CE45" s="5"/>
+      <c r="CD45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE45" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF45" s="8" t="s">
         <v>218</v>
       </c>
@@ -10661,7 +10941,9 @@
       <c r="AM46" s="5"/>
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
+      <c r="AP46" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ46" s="5"/>
       <c r="AR46" s="5"/>
       <c r="AS46" s="5"/>
@@ -10735,8 +11017,12 @@
       <c r="CC46" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD46" s="5"/>
-      <c r="CE46" s="5"/>
+      <c r="CD46" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE46" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF46" s="8" t="s">
         <v>219</v>
       </c>
@@ -10823,7 +11109,9 @@
       <c r="AM47" s="5"/>
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
+      <c r="AP47" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ47" s="5"/>
       <c r="AR47" s="5"/>
       <c r="AS47" s="5"/>
@@ -10897,8 +11185,12 @@
       <c r="CC47" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD47" s="5"/>
-      <c r="CE47" s="5"/>
+      <c r="CD47" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE47" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF47" s="8" t="s">
         <v>220</v>
       </c>
@@ -10985,7 +11277,9 @@
       <c r="AM48" s="5"/>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
+      <c r="AP48" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ48" s="5"/>
       <c r="AR48" s="5"/>
       <c r="AS48" s="5"/>
@@ -11059,8 +11353,12 @@
       <c r="CC48" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD48" s="5"/>
-      <c r="CE48" s="5"/>
+      <c r="CD48" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE48" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF48" s="8" t="s">
         <v>221</v>
       </c>
@@ -11147,7 +11445,9 @@
       <c r="AM49" s="5"/>
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
+      <c r="AP49" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ49" s="5"/>
       <c r="AR49" s="5"/>
       <c r="AS49" s="5"/>
@@ -11221,8 +11521,12 @@
       <c r="CC49" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD49" s="5"/>
-      <c r="CE49" s="5"/>
+      <c r="CD49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE49" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF49" s="8" t="s">
         <v>222</v>
       </c>
@@ -11309,7 +11613,9 @@
       <c r="AM50" s="5"/>
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
+      <c r="AP50" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ50" s="5"/>
       <c r="AR50" s="5"/>
       <c r="AS50" s="5"/>
@@ -11383,8 +11689,12 @@
       <c r="CC50" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD50" s="5"/>
-      <c r="CE50" s="5"/>
+      <c r="CD50" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE50" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF50" s="8" t="s">
         <v>223</v>
       </c>
@@ -11471,7 +11781,9 @@
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
+      <c r="AP51" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ51" s="5"/>
       <c r="AR51" s="5"/>
       <c r="AS51" s="5"/>
@@ -11545,8 +11857,12 @@
       <c r="CC51" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD51" s="5"/>
-      <c r="CE51" s="5"/>
+      <c r="CD51" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE51" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF51" s="8" t="s">
         <v>224</v>
       </c>
@@ -11633,7 +11949,9 @@
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
+      <c r="AP52" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ52" s="5"/>
       <c r="AR52" s="5"/>
       <c r="AS52" s="5"/>
@@ -11707,8 +12025,12 @@
       <c r="CC52" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD52" s="5"/>
-      <c r="CE52" s="5"/>
+      <c r="CD52" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE52" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF52" s="8" t="s">
         <v>225</v>
       </c>
@@ -11795,7 +12117,9 @@
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
+      <c r="AP53" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ53" s="5"/>
       <c r="AR53" s="5"/>
       <c r="AS53" s="5"/>
@@ -11869,8 +12193,12 @@
       <c r="CC53" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD53" s="5"/>
-      <c r="CE53" s="5"/>
+      <c r="CD53" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE53" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF53" s="8" t="s">
         <v>226</v>
       </c>
@@ -11957,7 +12285,9 @@
       <c r="AM54" s="5"/>
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
+      <c r="AP54" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ54" s="5"/>
       <c r="AR54" s="5"/>
       <c r="AS54" s="5"/>
@@ -12031,8 +12361,12 @@
       <c r="CC54" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD54" s="5"/>
-      <c r="CE54" s="5"/>
+      <c r="CD54" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE54" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF54" s="8" t="s">
         <v>227</v>
       </c>
@@ -12119,7 +12453,9 @@
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
       <c r="AO55" s="5"/>
-      <c r="AP55" s="5"/>
+      <c r="AP55" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ55" s="5"/>
       <c r="AR55" s="5"/>
       <c r="AS55" s="5"/>
@@ -12193,8 +12529,12 @@
       <c r="CC55" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD55" s="5"/>
-      <c r="CE55" s="5"/>
+      <c r="CD55" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE55" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF55" s="8" t="s">
         <v>228</v>
       </c>
@@ -12281,7 +12621,9 @@
       <c r="AM56" s="5"/>
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
+      <c r="AP56" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ56" s="5"/>
       <c r="AR56" s="5"/>
       <c r="AS56" s="5"/>
@@ -12355,8 +12697,12 @@
       <c r="CC56" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD56" s="5"/>
-      <c r="CE56" s="5"/>
+      <c r="CD56" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE56" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF56" s="8" t="s">
         <v>229</v>
       </c>
@@ -12443,7 +12789,9 @@
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
+      <c r="AP57" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ57" s="5"/>
       <c r="AR57" s="5"/>
       <c r="AS57" s="5"/>
@@ -12517,8 +12865,12 @@
       <c r="CC57" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD57" s="5"/>
-      <c r="CE57" s="5"/>
+      <c r="CD57" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE57" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF57" s="8" t="s">
         <v>230</v>
       </c>
@@ -12605,7 +12957,9 @@
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
-      <c r="AP58" s="5"/>
+      <c r="AP58" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ58" s="5"/>
       <c r="AR58" s="5"/>
       <c r="AS58" s="5"/>
@@ -12679,8 +13033,12 @@
       <c r="CC58" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD58" s="5"/>
-      <c r="CE58" s="5"/>
+      <c r="CD58" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE58" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF58" s="8" t="s">
         <v>231</v>
       </c>
@@ -12767,7 +13125,9 @@
       <c r="AM59" s="5"/>
       <c r="AN59" s="5"/>
       <c r="AO59" s="5"/>
-      <c r="AP59" s="5"/>
+      <c r="AP59" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ59" s="5"/>
       <c r="AR59" s="5"/>
       <c r="AS59" s="5"/>
@@ -12841,8 +13201,12 @@
       <c r="CC59" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD59" s="5"/>
-      <c r="CE59" s="5"/>
+      <c r="CD59" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE59" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF59" s="8" t="s">
         <v>232</v>
       </c>
@@ -12929,7 +13293,9 @@
       <c r="AM60" s="5"/>
       <c r="AN60" s="5"/>
       <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
+      <c r="AP60" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ60" s="5"/>
       <c r="AR60" s="5"/>
       <c r="AS60" s="5"/>
@@ -13003,8 +13369,12 @@
       <c r="CC60" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD60" s="5"/>
-      <c r="CE60" s="5"/>
+      <c r="CD60" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE60" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF60" s="8" t="s">
         <v>233</v>
       </c>
@@ -13091,7 +13461,9 @@
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
       <c r="AO61" s="5"/>
-      <c r="AP61" s="5"/>
+      <c r="AP61" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ61" s="5"/>
       <c r="AR61" s="5"/>
       <c r="AS61" s="5"/>
@@ -13165,8 +13537,12 @@
       <c r="CC61" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD61" s="5"/>
-      <c r="CE61" s="5"/>
+      <c r="CD61" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE61" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF61" s="8" t="s">
         <v>234</v>
       </c>
@@ -13253,7 +13629,9 @@
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
       <c r="AO62" s="5"/>
-      <c r="AP62" s="5"/>
+      <c r="AP62" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ62" s="5"/>
       <c r="AR62" s="5"/>
       <c r="AS62" s="5"/>
@@ -13327,8 +13705,12 @@
       <c r="CC62" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD62" s="5"/>
-      <c r="CE62" s="5"/>
+      <c r="CD62" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE62" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF62" s="8" t="s">
         <v>235</v>
       </c>
@@ -13415,7 +13797,9 @@
       <c r="AM63" s="5"/>
       <c r="AN63" s="5"/>
       <c r="AO63" s="5"/>
-      <c r="AP63" s="5"/>
+      <c r="AP63" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ63" s="5"/>
       <c r="AR63" s="5"/>
       <c r="AS63" s="5"/>
@@ -13489,8 +13873,12 @@
       <c r="CC63" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD63" s="5"/>
-      <c r="CE63" s="5"/>
+      <c r="CD63" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE63" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF63" s="8" t="s">
         <v>236</v>
       </c>
@@ -13577,7 +13965,9 @@
       <c r="AM64" s="5"/>
       <c r="AN64" s="5"/>
       <c r="AO64" s="5"/>
-      <c r="AP64" s="5"/>
+      <c r="AP64" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ64" s="5"/>
       <c r="AR64" s="5"/>
       <c r="AS64" s="5"/>
@@ -13651,8 +14041,12 @@
       <c r="CC64" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD64" s="5"/>
-      <c r="CE64" s="5"/>
+      <c r="CD64" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE64" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF64" s="8" t="s">
         <v>237</v>
       </c>
@@ -13739,7 +14133,9 @@
       <c r="AM65" s="5"/>
       <c r="AN65" s="5"/>
       <c r="AO65" s="5"/>
-      <c r="AP65" s="5"/>
+      <c r="AP65" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ65" s="5"/>
       <c r="AR65" s="5"/>
       <c r="AS65" s="5"/>
@@ -13813,8 +14209,12 @@
       <c r="CC65" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD65" s="5"/>
-      <c r="CE65" s="5"/>
+      <c r="CD65" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE65" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF65" s="8" t="s">
         <v>238</v>
       </c>
@@ -13901,7 +14301,9 @@
       <c r="AM66" s="5"/>
       <c r="AN66" s="5"/>
       <c r="AO66" s="5"/>
-      <c r="AP66" s="5"/>
+      <c r="AP66" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ66" s="5"/>
       <c r="AR66" s="5"/>
       <c r="AS66" s="5"/>
@@ -13975,8 +14377,12 @@
       <c r="CC66" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD66" s="5"/>
-      <c r="CE66" s="5"/>
+      <c r="CD66" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE66" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF66" s="8" t="s">
         <v>239</v>
       </c>
@@ -14063,7 +14469,9 @@
       <c r="AM67" s="5"/>
       <c r="AN67" s="5"/>
       <c r="AO67" s="5"/>
-      <c r="AP67" s="5"/>
+      <c r="AP67" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ67" s="5"/>
       <c r="AR67" s="5"/>
       <c r="AS67" s="5"/>
@@ -14137,8 +14545,12 @@
       <c r="CC67" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD67" s="5"/>
-      <c r="CE67" s="5"/>
+      <c r="CD67" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE67" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF67" s="8" t="s">
         <v>240</v>
       </c>
@@ -14225,7 +14637,9 @@
       <c r="AM68" s="5"/>
       <c r="AN68" s="5"/>
       <c r="AO68" s="5"/>
-      <c r="AP68" s="5"/>
+      <c r="AP68" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ68" s="5"/>
       <c r="AR68" s="5"/>
       <c r="AS68" s="5"/>
@@ -14299,8 +14713,12 @@
       <c r="CC68" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD68" s="5"/>
-      <c r="CE68" s="5"/>
+      <c r="CD68" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE68" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF68" s="8" t="s">
         <v>241</v>
       </c>
@@ -14387,7 +14805,9 @@
       <c r="AM69" s="5"/>
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
-      <c r="AP69" s="5"/>
+      <c r="AP69" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="AQ69" s="5"/>
       <c r="AR69" s="5"/>
       <c r="AS69" s="5"/>
@@ -14461,8 +14881,12 @@
       <c r="CC69" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="CD69" s="5"/>
-      <c r="CE69" s="5"/>
+      <c r="CD69" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="CE69" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="CF69" s="8" t="s">
         <v>242</v>
       </c>

--- a/cafe24 양식/봉지라면.xlsx
+++ b/cafe24 양식/봉지라면.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="일괄등록 양식" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="653">
   <si>
     <t>상품코드</t>
   </si>
@@ -534,16 +534,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>평일 09:30~17:30
-점심 12:00~13:00
-토,일요일 공휴일 휴무</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;IMG src="http://tongup1emd.cafe24.com/img/Image_detail/notice.jpg" width=860&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1|16|2500//17|32|5000//33|48|7500//49|64|10000//65|80|12500//81|96|15000</t>
   </si>
   <si>
@@ -1009,10 +999,6 @@
   </si>
   <si>
     <t>통업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;IMG src="http://tongup1emd.cafe24.com/img/Image_detail/notice.jpg" width=860&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2051,7 +2037,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2228,12 +2214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -2249,7 +2229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2427,12 +2407,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2774,7 +2748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2796,9 +2770,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2814,19 +2785,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2840,6 +2811,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3189,293 +3166,293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT2" sqref="BT2"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BK65" sqref="BK65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="56" customWidth="1"/>
-    <col min="46" max="47" width="17.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="17.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.375" style="16" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="70.875" customWidth="1"/>
-    <col min="64" max="64" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="83.25" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="40.875" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="26.875" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="16" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:88" s="15" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AI1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AM1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AN1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AP1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AT1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AW1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AX1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BC1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BD1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BH1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BI1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="14" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BK1" s="12" t="s">
         <v>62</v>
       </c>
       <c r="BL1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BM1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BN1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BO1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BP1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="15" t="s">
+      <c r="BQ1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BR1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="15" t="s">
+      <c r="BS1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="15" t="s">
+      <c r="BT1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BU1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BV1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BW1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BX1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BY1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="BZ1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CA1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="14" t="s">
+      <c r="CB1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="14" t="s">
+      <c r="CC1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="14" t="s">
+      <c r="CD1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="14" t="s">
+      <c r="CE1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="14" t="s">
+      <c r="CF1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="12" t="s">
+      <c r="CG1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="12" t="s">
+      <c r="CH1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CI1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CJ1" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1">
         <v>2414</v>
@@ -3504,8 +3481,8 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="8" t="s">
-        <v>314</v>
+      <c r="O2" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>89</v>
@@ -3550,22 +3527,22 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ2" s="5"/>
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="18" t="s">
+      <c r="AT2" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="AX2" s="5" t="s">
         <v>165</v>
@@ -3583,15 +3560,11 @@
       <c r="BG2">
         <v>1798</v>
       </c>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="22"/>
       <c r="BM2" s="5" t="s">
         <v>91</v>
       </c>
@@ -3609,8 +3582,8 @@
       <c r="BS2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT2" s="8" t="s">
-        <v>171</v>
+      <c r="BT2" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU2" s="5"/>
       <c r="BV2" s="5"/>
@@ -3623,27 +3596,27 @@
         <v>88</v>
       </c>
       <c r="CC2" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD2" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE2" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="CG2" s="8" t="s">
-        <v>243</v>
+        <v>651</v>
+      </c>
+      <c r="CF2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="CG2" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="CH2" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI2" s="5"/>
       <c r="CJ2" s="5"/>
     </row>
-    <row r="3" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="1">
         <v>2415</v>
@@ -3672,8 +3645,8 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="8" t="s">
-        <v>315</v>
+      <c r="O3" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>89</v>
@@ -3718,22 +3691,22 @@
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
-      <c r="AT3" s="18" t="s">
+      <c r="AT3" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW3" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="AW3" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="AX3" s="5" t="s">
         <v>165</v>
@@ -3751,15 +3724,11 @@
       <c r="BG3" s="5">
         <v>1798</v>
       </c>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="22"/>
       <c r="BM3" s="5" t="s">
         <v>91</v>
       </c>
@@ -3777,8 +3746,8 @@
       <c r="BS3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT3" s="8" t="s">
-        <v>171</v>
+      <c r="BT3" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU3" s="5"/>
       <c r="BV3" s="5"/>
@@ -3791,27 +3760,27 @@
         <v>88</v>
       </c>
       <c r="CC3" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD3" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE3" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF3" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="CG3" s="8" t="s">
-        <v>244</v>
+        <v>651</v>
+      </c>
+      <c r="CF3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG3" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="CH3" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI3" s="5"/>
       <c r="CJ3" s="5"/>
     </row>
-    <row r="4" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>2416</v>
@@ -3840,8 +3809,8 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="8" t="s">
-        <v>316</v>
+      <c r="O4" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>89</v>
@@ -3886,22 +3855,22 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="18" t="s">
+      <c r="AT4" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="AX4" s="5" t="s">
         <v>165</v>
@@ -3919,15 +3888,11 @@
       <c r="BG4" s="5">
         <v>1798</v>
       </c>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="22"/>
       <c r="BM4" s="5" t="s">
         <v>91</v>
       </c>
@@ -3945,8 +3910,8 @@
       <c r="BS4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT4" s="8" t="s">
-        <v>171</v>
+      <c r="BT4" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU4" s="5"/>
       <c r="BV4" s="5"/>
@@ -3959,27 +3924,27 @@
         <v>88</v>
       </c>
       <c r="CC4" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD4" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE4" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="CG4" s="8" t="s">
-        <v>245</v>
+        <v>651</v>
+      </c>
+      <c r="CF4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG4" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="CH4" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI4" s="5"/>
       <c r="CJ4" s="5"/>
     </row>
-    <row r="5" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>2419</v>
@@ -4008,8 +3973,8 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="8" t="s">
-        <v>317</v>
+      <c r="O5" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>89</v>
@@ -4054,22 +4019,22 @@
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AT5" s="18" t="s">
+      <c r="AT5" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="AW5" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="AU5" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="AV5" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="AW5" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="AX5" s="5" t="s">
         <v>165</v>
@@ -4087,15 +4052,11 @@
       <c r="BG5" s="5">
         <v>1798</v>
       </c>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="22"/>
       <c r="BM5" s="5" t="s">
         <v>91</v>
       </c>
@@ -4113,8 +4074,8 @@
       <c r="BS5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT5" s="8" t="s">
-        <v>171</v>
+      <c r="BT5" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU5" s="5"/>
       <c r="BV5" s="5"/>
@@ -4127,27 +4088,27 @@
         <v>88</v>
       </c>
       <c r="CC5" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD5" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE5" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF5" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="CG5" s="8" t="s">
-        <v>246</v>
+        <v>651</v>
+      </c>
+      <c r="CF5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG5" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="CH5" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI5" s="5"/>
       <c r="CJ5" s="5"/>
     </row>
-    <row r="6" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>2420</v>
@@ -4176,8 +4137,8 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>318</v>
+      <c r="O6" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>89</v>
@@ -4222,22 +4183,22 @@
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="18" t="s">
+      <c r="AT6" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="AW6" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="AU6" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="AV6" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="AW6" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="AX6" s="5" t="s">
         <v>165</v>
@@ -4255,15 +4216,11 @@
       <c r="BG6" s="5">
         <v>1798</v>
       </c>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="22"/>
       <c r="BM6" s="5" t="s">
         <v>91</v>
       </c>
@@ -4281,8 +4238,8 @@
       <c r="BS6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT6" s="8" t="s">
-        <v>171</v>
+      <c r="BT6" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU6" s="5"/>
       <c r="BV6" s="5"/>
@@ -4295,27 +4252,27 @@
         <v>88</v>
       </c>
       <c r="CC6" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD6" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE6" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF6" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG6" s="8" t="s">
-        <v>247</v>
+        <v>651</v>
+      </c>
+      <c r="CF6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="CG6" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="CH6" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI6" s="5"/>
       <c r="CJ6" s="5"/>
     </row>
-    <row r="7" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>2437</v>
@@ -4344,8 +4301,8 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="8" t="s">
-        <v>319</v>
+      <c r="O7" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>89</v>
@@ -4390,22 +4347,22 @@
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ7" s="5"/>
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="18" t="s">
+      <c r="AT7" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW7" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AV7" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="AW7" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="AX7" s="5" t="s">
         <v>165</v>
@@ -4423,15 +4380,11 @@
       <c r="BG7" s="5">
         <v>1798</v>
       </c>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="22"/>
       <c r="BM7" s="5" t="s">
         <v>91</v>
       </c>
@@ -4449,8 +4402,8 @@
       <c r="BS7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT7" s="8" t="s">
-        <v>171</v>
+      <c r="BT7" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU7" s="5"/>
       <c r="BV7" s="5"/>
@@ -4463,27 +4416,27 @@
         <v>88</v>
       </c>
       <c r="CC7" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD7" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE7" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF7" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="CG7" s="8" t="s">
-        <v>248</v>
+        <v>651</v>
+      </c>
+      <c r="CF7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CG7" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="CH7" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI7" s="5"/>
       <c r="CJ7" s="5"/>
     </row>
-    <row r="8" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>2447</v>
@@ -4512,8 +4465,8 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="8" t="s">
-        <v>320</v>
+      <c r="O8" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>89</v>
@@ -4558,22 +4511,22 @@
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="18" t="s">
+      <c r="AT8" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW8" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="AU8" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="AV8" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="AW8" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="AX8" s="5" t="s">
         <v>165</v>
@@ -4591,15 +4544,11 @@
       <c r="BG8" s="5">
         <v>1798</v>
       </c>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="22"/>
       <c r="BM8" s="5" t="s">
         <v>91</v>
       </c>
@@ -4617,8 +4566,8 @@
       <c r="BS8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT8" s="8" t="s">
-        <v>171</v>
+      <c r="BT8" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU8" s="5"/>
       <c r="BV8" s="5"/>
@@ -4631,27 +4580,27 @@
         <v>88</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CG8" s="8" t="s">
-        <v>249</v>
+        <v>651</v>
+      </c>
+      <c r="CF8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="CG8" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI8" s="5"/>
       <c r="CJ8" s="5"/>
     </row>
-    <row r="9" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>2449</v>
@@ -4680,8 +4629,8 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="8" t="s">
-        <v>321</v>
+      <c r="O9" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>89</v>
@@ -4726,22 +4675,22 @@
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
-      <c r="AT9" s="18" t="s">
+      <c r="AT9" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="AW9" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="AU9" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="AV9" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="AW9" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="AX9" s="5" t="s">
         <v>165</v>
@@ -4759,15 +4708,11 @@
       <c r="BG9" s="5">
         <v>1798</v>
       </c>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK9" s="5"/>
-      <c r="BL9" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="22"/>
       <c r="BM9" s="5" t="s">
         <v>91</v>
       </c>
@@ -4785,8 +4730,8 @@
       <c r="BS9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT9" s="8" t="s">
-        <v>171</v>
+      <c r="BT9" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU9" s="5"/>
       <c r="BV9" s="5"/>
@@ -4799,27 +4744,27 @@
         <v>88</v>
       </c>
       <c r="CC9" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD9" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE9" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="CG9" s="8" t="s">
-        <v>250</v>
+        <v>651</v>
+      </c>
+      <c r="CF9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG9" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="CH9" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI9" s="5"/>
       <c r="CJ9" s="5"/>
     </row>
-    <row r="10" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>2450</v>
@@ -4848,8 +4793,8 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="8" t="s">
-        <v>322</v>
+      <c r="O10" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>89</v>
@@ -4894,22 +4839,22 @@
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
-      <c r="AT10" s="18" t="s">
+      <c r="AT10" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW10" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="AU10" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="AV10" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="AW10" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="AX10" s="5" t="s">
         <v>165</v>
@@ -4927,15 +4872,11 @@
       <c r="BG10" s="5">
         <v>1798</v>
       </c>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK10" s="5"/>
-      <c r="BL10" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="22"/>
       <c r="BM10" s="5" t="s">
         <v>91</v>
       </c>
@@ -4953,8 +4894,8 @@
       <c r="BS10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT10" s="8" t="s">
-        <v>171</v>
+      <c r="BT10" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU10" s="5"/>
       <c r="BV10" s="5"/>
@@ -4967,27 +4908,27 @@
         <v>88</v>
       </c>
       <c r="CC10" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD10" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE10" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="CG10" s="8" t="s">
-        <v>251</v>
+        <v>651</v>
+      </c>
+      <c r="CF10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="CG10" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="CH10" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI10" s="5"/>
       <c r="CJ10" s="5"/>
     </row>
-    <row r="11" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>2475</v>
@@ -5016,8 +4957,8 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="8" t="s">
-        <v>323</v>
+      <c r="O11" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>89</v>
@@ -5062,22 +5003,22 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
-      <c r="AT11" s="18" t="s">
+      <c r="AT11" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW11" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="AU11" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="AV11" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="AW11" s="8" t="s">
-        <v>421</v>
       </c>
       <c r="AX11" s="5" t="s">
         <v>165</v>
@@ -5095,15 +5036,11 @@
       <c r="BG11" s="5">
         <v>1798</v>
       </c>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="22"/>
       <c r="BM11" s="5" t="s">
         <v>91</v>
       </c>
@@ -5121,8 +5058,8 @@
       <c r="BS11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT11" s="8" t="s">
-        <v>171</v>
+      <c r="BT11" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU11" s="5"/>
       <c r="BV11" s="5"/>
@@ -5135,27 +5072,27 @@
         <v>88</v>
       </c>
       <c r="CC11" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD11" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE11" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF11" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG11" s="8" t="s">
-        <v>252</v>
+        <v>651</v>
+      </c>
+      <c r="CF11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG11" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="CH11" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI11" s="5"/>
       <c r="CJ11" s="5"/>
     </row>
-    <row r="12" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="1">
         <v>2493</v>
@@ -5184,8 +5121,8 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="8" t="s">
-        <v>324</v>
+      <c r="O12" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>89</v>
@@ -5230,22 +5167,22 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
-      <c r="AT12" s="18" t="s">
+      <c r="AT12" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU12" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV12" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW12" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="AU12" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AV12" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="AW12" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="AX12" s="5" t="s">
         <v>165</v>
@@ -5263,15 +5200,11 @@
       <c r="BG12" s="5">
         <v>1798</v>
       </c>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="22"/>
       <c r="BM12" s="5" t="s">
         <v>91</v>
       </c>
@@ -5289,8 +5222,8 @@
       <c r="BS12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT12" s="8" t="s">
-        <v>171</v>
+      <c r="BT12" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU12" s="5"/>
       <c r="BV12" s="5"/>
@@ -5303,27 +5236,27 @@
         <v>88</v>
       </c>
       <c r="CC12" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD12" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE12" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="CG12" s="8" t="s">
-        <v>253</v>
+        <v>651</v>
+      </c>
+      <c r="CF12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG12" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="CH12" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI12" s="5"/>
       <c r="CJ12" s="5"/>
     </row>
-    <row r="13" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="1">
         <v>2501</v>
@@ -5352,8 +5285,8 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="8" t="s">
-        <v>325</v>
+      <c r="O13" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>89</v>
@@ -5398,22 +5331,22 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
-      <c r="AT13" s="18" t="s">
+      <c r="AT13" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="AV13" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="AW13" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="AU13" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AV13" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AW13" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="AX13" s="5" t="s">
         <v>165</v>
@@ -5431,15 +5364,11 @@
       <c r="BG13" s="5">
         <v>1798</v>
       </c>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK13" s="5"/>
-      <c r="BL13" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="22"/>
       <c r="BM13" s="5" t="s">
         <v>91</v>
       </c>
@@ -5457,8 +5386,8 @@
       <c r="BS13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT13" s="8" t="s">
-        <v>171</v>
+      <c r="BT13" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU13" s="5"/>
       <c r="BV13" s="5"/>
@@ -5471,27 +5400,27 @@
         <v>88</v>
       </c>
       <c r="CC13" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD13" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE13" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="CG13" s="8" t="s">
-        <v>254</v>
+        <v>651</v>
+      </c>
+      <c r="CF13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CG13" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="CH13" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI13" s="5"/>
       <c r="CJ13" s="5"/>
     </row>
-    <row r="14" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="1">
         <v>2502</v>
@@ -5520,8 +5449,8 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="8" t="s">
-        <v>326</v>
+      <c r="O14" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>89</v>
@@ -5566,22 +5495,22 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="18" t="s">
+      <c r="AT14" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU14" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AV14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AW14" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="AU14" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="AV14" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="AW14" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="AX14" s="5" t="s">
         <v>165</v>
@@ -5599,15 +5528,11 @@
       <c r="BG14" s="5">
         <v>1798</v>
       </c>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK14" s="5"/>
-      <c r="BL14" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="22"/>
       <c r="BM14" s="5" t="s">
         <v>91</v>
       </c>
@@ -5625,8 +5550,8 @@
       <c r="BS14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT14" s="8" t="s">
-        <v>171</v>
+      <c r="BT14" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU14" s="5"/>
       <c r="BV14" s="5"/>
@@ -5639,27 +5564,27 @@
         <v>88</v>
       </c>
       <c r="CC14" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD14" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE14" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF14" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG14" s="8" t="s">
-        <v>255</v>
+        <v>651</v>
+      </c>
+      <c r="CF14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="CG14" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="CH14" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI14" s="5"/>
       <c r="CJ14" s="5"/>
     </row>
-    <row r="15" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="1">
         <v>2505</v>
@@ -5688,8 +5613,8 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="8" t="s">
-        <v>327</v>
+      <c r="O15" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>89</v>
@@ -5734,22 +5659,22 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="18" t="s">
+      <c r="AT15" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="AV15" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AW15" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="AU15" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="AV15" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="AW15" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="AX15" s="5" t="s">
         <v>165</v>
@@ -5767,15 +5692,11 @@
       <c r="BG15" s="5">
         <v>1798</v>
       </c>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK15" s="5"/>
-      <c r="BL15" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="22"/>
       <c r="BM15" s="5" t="s">
         <v>91</v>
       </c>
@@ -5793,8 +5714,8 @@
       <c r="BS15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT15" s="8" t="s">
-        <v>171</v>
+      <c r="BT15" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU15" s="5"/>
       <c r="BV15" s="5"/>
@@ -5807,27 +5728,27 @@
         <v>88</v>
       </c>
       <c r="CC15" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD15" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE15" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF15" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="CG15" s="8" t="s">
-        <v>256</v>
+        <v>651</v>
+      </c>
+      <c r="CF15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG15" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="CH15" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI15" s="5"/>
       <c r="CJ15" s="5"/>
     </row>
-    <row r="16" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="1">
         <v>3400</v>
@@ -5856,8 +5777,8 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="8" t="s">
-        <v>328</v>
+      <c r="O16" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>89</v>
@@ -5902,22 +5823,22 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="18" t="s">
+      <c r="AT16" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AV16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AW16" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="AU16" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="AV16" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AW16" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="AX16" s="5" t="s">
         <v>165</v>
@@ -5935,15 +5856,11 @@
       <c r="BG16" s="5">
         <v>1798</v>
       </c>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
-      <c r="BJ16" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK16" s="5"/>
-      <c r="BL16" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
+      <c r="BK16" s="21"/>
+      <c r="BL16" s="22"/>
       <c r="BM16" s="5" t="s">
         <v>91</v>
       </c>
@@ -5961,8 +5878,8 @@
       <c r="BS16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT16" s="8" t="s">
-        <v>171</v>
+      <c r="BT16" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU16" s="5"/>
       <c r="BV16" s="5"/>
@@ -5975,27 +5892,27 @@
         <v>88</v>
       </c>
       <c r="CC16" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD16" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE16" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF16" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG16" s="8" t="s">
-        <v>257</v>
+        <v>651</v>
+      </c>
+      <c r="CF16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG16" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="CH16" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI16" s="5"/>
       <c r="CJ16" s="5"/>
     </row>
-    <row r="17" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1">
         <v>3401</v>
@@ -6024,8 +5941,8 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="8" t="s">
-        <v>329</v>
+      <c r="O17" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>89</v>
@@ -6070,22 +5987,22 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
-      <c r="AT17" s="18" t="s">
+      <c r="AT17" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AW17" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="AU17" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="AV17" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW17" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="AX17" s="5" t="s">
         <v>165</v>
@@ -6103,15 +6020,11 @@
       <c r="BG17" s="5">
         <v>1798</v>
       </c>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK17" s="5"/>
-      <c r="BL17" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
+      <c r="BK17" s="21"/>
+      <c r="BL17" s="22"/>
       <c r="BM17" s="5" t="s">
         <v>91</v>
       </c>
@@ -6129,8 +6042,8 @@
       <c r="BS17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT17" s="8" t="s">
-        <v>171</v>
+      <c r="BT17" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU17" s="5"/>
       <c r="BV17" s="5"/>
@@ -6143,27 +6056,27 @@
         <v>88</v>
       </c>
       <c r="CC17" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD17" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE17" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF17" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG17" s="8" t="s">
-        <v>258</v>
+        <v>651</v>
+      </c>
+      <c r="CF17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="CG17" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="CH17" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI17" s="5"/>
       <c r="CJ17" s="5"/>
     </row>
-    <row r="18" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="1">
         <v>3403</v>
@@ -6192,8 +6105,8 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="8" t="s">
-        <v>330</v>
+      <c r="O18" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>89</v>
@@ -6238,22 +6151,22 @@
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="18" t="s">
+      <c r="AT18" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="AV18" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AW18" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="AU18" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="AV18" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="AW18" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="AX18" s="5" t="s">
         <v>165</v>
@@ -6271,15 +6184,11 @@
       <c r="BG18" s="5">
         <v>1798</v>
       </c>
-      <c r="BH18" s="5"/>
-      <c r="BI18" s="5"/>
-      <c r="BJ18" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK18" s="5"/>
-      <c r="BL18" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH18" s="21"/>
+      <c r="BI18" s="21"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="21"/>
+      <c r="BL18" s="22"/>
       <c r="BM18" s="5" t="s">
         <v>91</v>
       </c>
@@ -6297,8 +6206,8 @@
       <c r="BS18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT18" s="8" t="s">
-        <v>171</v>
+      <c r="BT18" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU18" s="5"/>
       <c r="BV18" s="5"/>
@@ -6311,27 +6220,27 @@
         <v>88</v>
       </c>
       <c r="CC18" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD18" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE18" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF18" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="CG18" s="8" t="s">
-        <v>259</v>
+        <v>651</v>
+      </c>
+      <c r="CF18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG18" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="CH18" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI18" s="5"/>
       <c r="CJ18" s="5"/>
     </row>
-    <row r="19" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="1">
         <v>3404</v>
@@ -6360,8 +6269,8 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="8" t="s">
-        <v>331</v>
+      <c r="O19" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>89</v>
@@ -6406,22 +6315,22 @@
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
-      <c r="AT19" s="18" t="s">
+      <c r="AT19" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="AV19" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="AW19" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="AU19" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AV19" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="AW19" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="AX19" s="5" t="s">
         <v>165</v>
@@ -6439,15 +6348,11 @@
       <c r="BG19" s="5">
         <v>1798</v>
       </c>
-      <c r="BH19" s="5"/>
-      <c r="BI19" s="5"/>
-      <c r="BJ19" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK19" s="5"/>
-      <c r="BL19" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="22"/>
       <c r="BM19" s="5" t="s">
         <v>91</v>
       </c>
@@ -6465,8 +6370,8 @@
       <c r="BS19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT19" s="8" t="s">
-        <v>171</v>
+      <c r="BT19" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU19" s="5"/>
       <c r="BV19" s="5"/>
@@ -6479,27 +6384,27 @@
         <v>88</v>
       </c>
       <c r="CC19" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD19" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE19" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF19" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="CG19" s="8" t="s">
-        <v>260</v>
+        <v>651</v>
+      </c>
+      <c r="CF19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG19" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="CH19" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI19" s="5"/>
       <c r="CJ19" s="5"/>
     </row>
-    <row r="20" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="1">
         <v>3405</v>
@@ -6528,8 +6433,8 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="8" t="s">
-        <v>332</v>
+      <c r="O20" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>89</v>
@@ -6574,22 +6479,22 @@
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
-      <c r="AT20" s="18" t="s">
+      <c r="AT20" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU20" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV20" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW20" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="AU20" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="AV20" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="AW20" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="AX20" s="5" t="s">
         <v>165</v>
@@ -6607,15 +6512,11 @@
       <c r="BG20" s="5">
         <v>1798</v>
       </c>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="5"/>
-      <c r="BJ20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK20" s="5"/>
-      <c r="BL20" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH20" s="21"/>
+      <c r="BI20" s="21"/>
+      <c r="BJ20" s="21"/>
+      <c r="BK20" s="21"/>
+      <c r="BL20" s="22"/>
       <c r="BM20" s="5" t="s">
         <v>91</v>
       </c>
@@ -6633,8 +6534,8 @@
       <c r="BS20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT20" s="8" t="s">
-        <v>171</v>
+      <c r="BT20" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU20" s="5"/>
       <c r="BV20" s="5"/>
@@ -6647,27 +6548,27 @@
         <v>88</v>
       </c>
       <c r="CC20" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD20" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE20" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF20" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="CG20" s="8" t="s">
-        <v>261</v>
+        <v>651</v>
+      </c>
+      <c r="CF20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="CG20" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="CH20" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI20" s="5"/>
       <c r="CJ20" s="5"/>
     </row>
-    <row r="21" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="1">
         <v>3406</v>
@@ -6696,8 +6597,8 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="8" t="s">
-        <v>333</v>
+      <c r="O21" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>89</v>
@@ -6742,22 +6643,22 @@
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
-      <c r="AT21" s="18" t="s">
+      <c r="AT21" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW21" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="AU21" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="AV21" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="AW21" s="8" t="s">
-        <v>461</v>
       </c>
       <c r="AX21" s="5" t="s">
         <v>165</v>
@@ -6775,15 +6676,11 @@
       <c r="BG21" s="5">
         <v>1798</v>
       </c>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
-      <c r="BJ21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK21" s="5"/>
-      <c r="BL21" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH21" s="21"/>
+      <c r="BI21" s="21"/>
+      <c r="BJ21" s="21"/>
+      <c r="BK21" s="21"/>
+      <c r="BL21" s="22"/>
       <c r="BM21" s="5" t="s">
         <v>91</v>
       </c>
@@ -6801,8 +6698,8 @@
       <c r="BS21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT21" s="8" t="s">
-        <v>171</v>
+      <c r="BT21" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU21" s="5"/>
       <c r="BV21" s="5"/>
@@ -6815,27 +6712,27 @@
         <v>88</v>
       </c>
       <c r="CC21" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD21" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE21" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF21" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="CG21" s="8" t="s">
-        <v>262</v>
+        <v>651</v>
+      </c>
+      <c r="CF21" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG21" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="CH21" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI21" s="5"/>
       <c r="CJ21" s="5"/>
     </row>
-    <row r="22" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="1">
         <v>3407</v>
@@ -6864,8 +6761,8 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="8" t="s">
-        <v>334</v>
+      <c r="O22" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>89</v>
@@ -6910,22 +6807,22 @@
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="18" t="s">
+      <c r="AT22" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="AU22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="AV22" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AW22" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="AU22" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="AV22" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="AW22" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="AX22" s="5" t="s">
         <v>165</v>
@@ -6943,15 +6840,11 @@
       <c r="BG22" s="5">
         <v>1798</v>
       </c>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK22" s="5"/>
-      <c r="BL22" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH22" s="21"/>
+      <c r="BI22" s="21"/>
+      <c r="BJ22" s="21"/>
+      <c r="BK22" s="21"/>
+      <c r="BL22" s="22"/>
       <c r="BM22" s="5" t="s">
         <v>91</v>
       </c>
@@ -6969,8 +6862,8 @@
       <c r="BS22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT22" s="8" t="s">
-        <v>171</v>
+      <c r="BT22" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU22" s="5"/>
       <c r="BV22" s="5"/>
@@ -6983,27 +6876,27 @@
         <v>88</v>
       </c>
       <c r="CC22" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD22" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE22" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF22" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="CG22" s="8" t="s">
-        <v>263</v>
+        <v>651</v>
+      </c>
+      <c r="CF22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG22" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="CH22" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI22" s="5"/>
       <c r="CJ22" s="5"/>
     </row>
-    <row r="23" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="1">
         <v>3408</v>
@@ -7032,8 +6925,8 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="8" t="s">
-        <v>335</v>
+      <c r="O23" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>89</v>
@@ -7078,22 +6971,22 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
-      <c r="AT23" s="18" t="s">
+      <c r="AT23" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="AU23" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="AV23" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="AW23" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="AU23" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="AV23" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AW23" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="AX23" s="5" t="s">
         <v>165</v>
@@ -7111,15 +7004,11 @@
       <c r="BG23" s="5">
         <v>1798</v>
       </c>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK23" s="5"/>
-      <c r="BL23" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
+      <c r="BL23" s="22"/>
       <c r="BM23" s="5" t="s">
         <v>91</v>
       </c>
@@ -7137,8 +7026,8 @@
       <c r="BS23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT23" s="8" t="s">
-        <v>171</v>
+      <c r="BT23" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU23" s="5"/>
       <c r="BV23" s="5"/>
@@ -7151,27 +7040,27 @@
         <v>88</v>
       </c>
       <c r="CC23" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD23" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE23" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="CG23" s="8" t="s">
-        <v>264</v>
+        <v>651</v>
+      </c>
+      <c r="CF23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG23" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="CH23" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI23" s="5"/>
       <c r="CJ23" s="5"/>
     </row>
-    <row r="24" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="1">
         <v>3409</v>
@@ -7200,8 +7089,8 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="8" t="s">
-        <v>336</v>
+      <c r="O24" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>89</v>
@@ -7246,22 +7135,22 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="18" t="s">
+      <c r="AT24" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="AU24" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="AV24" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AW24" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="AU24" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AV24" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="AW24" s="8" t="s">
-        <v>473</v>
       </c>
       <c r="AX24" s="5" t="s">
         <v>165</v>
@@ -7279,15 +7168,11 @@
       <c r="BG24" s="5">
         <v>1798</v>
       </c>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK24" s="5"/>
-      <c r="BL24" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH24" s="21"/>
+      <c r="BI24" s="21"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="21"/>
+      <c r="BL24" s="22"/>
       <c r="BM24" s="5" t="s">
         <v>91</v>
       </c>
@@ -7305,8 +7190,8 @@
       <c r="BS24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT24" s="8" t="s">
-        <v>171</v>
+      <c r="BT24" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU24" s="5"/>
       <c r="BV24" s="5"/>
@@ -7319,27 +7204,27 @@
         <v>88</v>
       </c>
       <c r="CC24" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD24" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE24" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF24" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="CG24" s="8" t="s">
-        <v>265</v>
+        <v>651</v>
+      </c>
+      <c r="CF24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG24" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="CH24" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI24" s="5"/>
       <c r="CJ24" s="5"/>
     </row>
-    <row r="25" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="1">
         <v>3410</v>
@@ -7368,8 +7253,8 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="8" t="s">
-        <v>337</v>
+      <c r="O25" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>89</v>
@@ -7414,22 +7299,22 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
-      <c r="AT25" s="18" t="s">
+      <c r="AT25" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="AU25" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="AV25" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AW25" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="AU25" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="AV25" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="AW25" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="AX25" s="5" t="s">
         <v>165</v>
@@ -7447,15 +7332,11 @@
       <c r="BG25" s="5">
         <v>1798</v>
       </c>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK25" s="5"/>
-      <c r="BL25" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="21"/>
+      <c r="BJ25" s="21"/>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="22"/>
       <c r="BM25" s="5" t="s">
         <v>91</v>
       </c>
@@ -7473,8 +7354,8 @@
       <c r="BS25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT25" s="8" t="s">
-        <v>171</v>
+      <c r="BT25" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU25" s="5"/>
       <c r="BV25" s="5"/>
@@ -7487,27 +7368,27 @@
         <v>88</v>
       </c>
       <c r="CC25" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD25" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE25" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF25" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG25" s="8" t="s">
-        <v>266</v>
+        <v>651</v>
+      </c>
+      <c r="CF25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="CG25" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="CH25" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI25" s="5"/>
       <c r="CJ25" s="5"/>
     </row>
-    <row r="26" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="1">
         <v>3413</v>
@@ -7536,8 +7417,8 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="8" t="s">
-        <v>338</v>
+      <c r="O26" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>89</v>
@@ -7582,22 +7463,22 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
-      <c r="AT26" s="18" t="s">
+      <c r="AT26" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="AU26" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV26" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AW26" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="AU26" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="AV26" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="AW26" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="AX26" s="5" t="s">
         <v>165</v>
@@ -7615,15 +7496,11 @@
       <c r="BG26" s="5">
         <v>1798</v>
       </c>
-      <c r="BH26" s="5"/>
-      <c r="BI26" s="5"/>
-      <c r="BJ26" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK26" s="5"/>
-      <c r="BL26" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH26" s="21"/>
+      <c r="BI26" s="21"/>
+      <c r="BJ26" s="21"/>
+      <c r="BK26" s="21"/>
+      <c r="BL26" s="22"/>
       <c r="BM26" s="5" t="s">
         <v>91</v>
       </c>
@@ -7641,8 +7518,8 @@
       <c r="BS26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT26" s="8" t="s">
-        <v>171</v>
+      <c r="BT26" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU26" s="5"/>
       <c r="BV26" s="5"/>
@@ -7655,27 +7532,27 @@
         <v>88</v>
       </c>
       <c r="CC26" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD26" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE26" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF26" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG26" s="8" t="s">
-        <v>267</v>
+        <v>651</v>
+      </c>
+      <c r="CF26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG26" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="CH26" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI26" s="5"/>
       <c r="CJ26" s="5"/>
     </row>
-    <row r="27" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="1">
         <v>3421</v>
@@ -7704,8 +7581,8 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="8" t="s">
-        <v>339</v>
+      <c r="O27" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>89</v>
@@ -7750,22 +7627,22 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
       <c r="AS27" s="5"/>
-      <c r="AT27" s="18" t="s">
+      <c r="AT27" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU27" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV27" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="AW27" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="AU27" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="AV27" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="AW27" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="AX27" s="5" t="s">
         <v>165</v>
@@ -7783,15 +7660,11 @@
       <c r="BG27" s="5">
         <v>1798</v>
       </c>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK27" s="5"/>
-      <c r="BL27" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH27" s="21"/>
+      <c r="BI27" s="21"/>
+      <c r="BJ27" s="21"/>
+      <c r="BK27" s="21"/>
+      <c r="BL27" s="22"/>
       <c r="BM27" s="5" t="s">
         <v>91</v>
       </c>
@@ -7809,8 +7682,8 @@
       <c r="BS27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT27" s="8" t="s">
-        <v>171</v>
+      <c r="BT27" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU27" s="5"/>
       <c r="BV27" s="5"/>
@@ -7823,27 +7696,27 @@
         <v>88</v>
       </c>
       <c r="CC27" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD27" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE27" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF27" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG27" s="8" t="s">
-        <v>268</v>
+        <v>651</v>
+      </c>
+      <c r="CF27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG27" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="CH27" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI27" s="5"/>
       <c r="CJ27" s="5"/>
     </row>
-    <row r="28" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="1">
         <v>3422</v>
@@ -7872,8 +7745,8 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="8" t="s">
-        <v>340</v>
+      <c r="O28" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>89</v>
@@ -7918,22 +7791,22 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
       <c r="AS28" s="5"/>
-      <c r="AT28" s="18" t="s">
+      <c r="AT28" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="AU28" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AV28" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AW28" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="AU28" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV28" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="AW28" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="AX28" s="5" t="s">
         <v>165</v>
@@ -7951,15 +7824,11 @@
       <c r="BG28" s="5">
         <v>1798</v>
       </c>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK28" s="5"/>
-      <c r="BL28" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH28" s="21"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="21"/>
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="22"/>
       <c r="BM28" s="5" t="s">
         <v>91</v>
       </c>
@@ -7977,8 +7846,8 @@
       <c r="BS28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT28" s="8" t="s">
-        <v>171</v>
+      <c r="BT28" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU28" s="5"/>
       <c r="BV28" s="5"/>
@@ -7991,27 +7860,27 @@
         <v>88</v>
       </c>
       <c r="CC28" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD28" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE28" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF28" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG28" s="8" t="s">
-        <v>269</v>
+        <v>651</v>
+      </c>
+      <c r="CF28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG28" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="CH28" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI28" s="5"/>
       <c r="CJ28" s="5"/>
     </row>
-    <row r="29" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="1">
         <v>3423</v>
@@ -8040,8 +7909,8 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="8" t="s">
-        <v>341</v>
+      <c r="O29" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>89</v>
@@ -8086,22 +7955,22 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
-      <c r="AT29" s="18" t="s">
+      <c r="AT29" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="AU29" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="AV29" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="AW29" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="AU29" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="AV29" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW29" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="AX29" s="5" t="s">
         <v>165</v>
@@ -8119,15 +7988,11 @@
       <c r="BG29" s="5">
         <v>1798</v>
       </c>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK29" s="5"/>
-      <c r="BL29" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH29" s="21"/>
+      <c r="BI29" s="21"/>
+      <c r="BJ29" s="21"/>
+      <c r="BK29" s="21"/>
+      <c r="BL29" s="22"/>
       <c r="BM29" s="5" t="s">
         <v>91</v>
       </c>
@@ -8145,8 +8010,8 @@
       <c r="BS29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT29" s="8" t="s">
-        <v>171</v>
+      <c r="BT29" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU29" s="5"/>
       <c r="BV29" s="5"/>
@@ -8159,27 +8024,27 @@
         <v>88</v>
       </c>
       <c r="CC29" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD29" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE29" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF29" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="CG29" s="8" t="s">
-        <v>270</v>
+        <v>651</v>
+      </c>
+      <c r="CF29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG29" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="CH29" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI29" s="5"/>
       <c r="CJ29" s="5"/>
     </row>
-    <row r="30" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="1">
         <v>3424</v>
@@ -8208,8 +8073,8 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="8" t="s">
-        <v>342</v>
+      <c r="O30" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>89</v>
@@ -8254,22 +8119,22 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
-      <c r="AT30" s="18" t="s">
+      <c r="AT30" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="AU30" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="AV30" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW30" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="AU30" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="AV30" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="AW30" s="8" t="s">
-        <v>497</v>
       </c>
       <c r="AX30" s="5" t="s">
         <v>165</v>
@@ -8287,15 +8152,11 @@
       <c r="BG30" s="5">
         <v>1798</v>
       </c>
-      <c r="BH30" s="5"/>
-      <c r="BI30" s="5"/>
-      <c r="BJ30" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK30" s="5"/>
-      <c r="BL30" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH30" s="21"/>
+      <c r="BI30" s="21"/>
+      <c r="BJ30" s="21"/>
+      <c r="BK30" s="21"/>
+      <c r="BL30" s="22"/>
       <c r="BM30" s="5" t="s">
         <v>91</v>
       </c>
@@ -8313,8 +8174,8 @@
       <c r="BS30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT30" s="8" t="s">
-        <v>171</v>
+      <c r="BT30" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU30" s="5"/>
       <c r="BV30" s="5"/>
@@ -8327,27 +8188,27 @@
         <v>88</v>
       </c>
       <c r="CC30" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD30" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE30" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF30" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG30" s="8" t="s">
-        <v>271</v>
+        <v>651</v>
+      </c>
+      <c r="CF30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="CG30" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="CH30" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI30" s="5"/>
       <c r="CJ30" s="5"/>
     </row>
-    <row r="31" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="1">
         <v>3429</v>
@@ -8376,8 +8237,8 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="8" t="s">
-        <v>343</v>
+      <c r="O31" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>89</v>
@@ -8422,22 +8283,22 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
-      <c r="AT31" s="18" t="s">
+      <c r="AT31" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="AU31" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="AV31" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="AW31" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="AU31" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="AV31" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="AW31" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="AX31" s="5" t="s">
         <v>165</v>
@@ -8455,15 +8316,11 @@
       <c r="BG31" s="5">
         <v>1798</v>
       </c>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
-      <c r="BJ31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK31" s="5"/>
-      <c r="BL31" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH31" s="21"/>
+      <c r="BI31" s="21"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="22"/>
       <c r="BM31" s="5" t="s">
         <v>91</v>
       </c>
@@ -8481,8 +8338,8 @@
       <c r="BS31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT31" s="8" t="s">
-        <v>171</v>
+      <c r="BT31" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU31" s="5"/>
       <c r="BV31" s="5"/>
@@ -8495,27 +8352,27 @@
         <v>88</v>
       </c>
       <c r="CC31" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD31" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE31" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF31" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="CG31" s="8" t="s">
-        <v>272</v>
+        <v>651</v>
+      </c>
+      <c r="CF31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="CG31" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="CH31" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI31" s="5"/>
       <c r="CJ31" s="5"/>
     </row>
-    <row r="32" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="1">
         <v>3440</v>
@@ -8544,8 +8401,8 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="8" t="s">
-        <v>344</v>
+      <c r="O32" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>89</v>
@@ -8590,22 +8447,22 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
-      <c r="AT32" s="18" t="s">
+      <c r="AT32" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU32" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="AV32" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="AW32" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="AU32" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="AV32" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="AW32" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="AX32" s="5" t="s">
         <v>165</v>
@@ -8623,15 +8480,11 @@
       <c r="BG32" s="5">
         <v>1798</v>
       </c>
-      <c r="BH32" s="5"/>
-      <c r="BI32" s="5"/>
-      <c r="BJ32" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK32" s="5"/>
-      <c r="BL32" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH32" s="21"/>
+      <c r="BI32" s="21"/>
+      <c r="BJ32" s="21"/>
+      <c r="BK32" s="21"/>
+      <c r="BL32" s="22"/>
       <c r="BM32" s="5" t="s">
         <v>91</v>
       </c>
@@ -8649,8 +8502,8 @@
       <c r="BS32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT32" s="8" t="s">
-        <v>172</v>
+      <c r="BT32" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="BU32" s="5"/>
       <c r="BV32" s="5"/>
@@ -8663,27 +8516,27 @@
         <v>88</v>
       </c>
       <c r="CC32" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD32" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE32" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF32" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG32" s="8" t="s">
-        <v>273</v>
+        <v>651</v>
+      </c>
+      <c r="CF32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="CG32" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="CH32" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI32" s="5"/>
       <c r="CJ32" s="5"/>
     </row>
-    <row r="33" spans="1:88" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:88" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="1">
         <v>3443</v>
@@ -8712,8 +8565,8 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="8" t="s">
-        <v>345</v>
+      <c r="O33" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>89</v>
@@ -8758,22 +8611,22 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
-      <c r="AT33" s="19" t="s">
+      <c r="AT33" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="AU33" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="AV33" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="AW33" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="AU33" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="AV33" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="AW33" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="AX33" s="5" t="s">
         <v>165</v>
@@ -8791,15 +8644,11 @@
       <c r="BG33" s="5">
         <v>1798</v>
       </c>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK33" s="5"/>
-      <c r="BL33" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH33" s="21"/>
+      <c r="BI33" s="21"/>
+      <c r="BJ33" s="21"/>
+      <c r="BK33" s="21"/>
+      <c r="BL33" s="22"/>
       <c r="BM33" s="5" t="s">
         <v>91</v>
       </c>
@@ -8817,8 +8666,8 @@
       <c r="BS33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT33" s="8" t="s">
-        <v>173</v>
+      <c r="BT33" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="BU33" s="5"/>
       <c r="BV33" s="5"/>
@@ -8831,27 +8680,27 @@
         <v>88</v>
       </c>
       <c r="CC33" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD33" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE33" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF33" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG33" s="9" t="s">
-        <v>274</v>
+        <v>651</v>
+      </c>
+      <c r="CF33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG33" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="CH33" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI33" s="5"/>
       <c r="CJ33" s="5"/>
     </row>
-    <row r="34" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="1">
         <v>5743</v>
@@ -8880,8 +8729,8 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="8" t="s">
-        <v>346</v>
+      <c r="O34" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>89</v>
@@ -8926,22 +8775,22 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="20" t="s">
+      <c r="AT34" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="AU34" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV34" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW34" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="AU34" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="AV34" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="AW34" s="8" t="s">
-        <v>513</v>
       </c>
       <c r="AX34" s="5" t="s">
         <v>166</v>
@@ -8959,15 +8808,11 @@
       <c r="BG34" s="5">
         <v>1798</v>
       </c>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK34" s="5"/>
-      <c r="BL34" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21"/>
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="22"/>
       <c r="BM34" s="5" t="s">
         <v>91</v>
       </c>
@@ -8985,8 +8830,8 @@
       <c r="BS34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT34" s="8" t="s">
-        <v>171</v>
+      <c r="BT34" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU34" s="5"/>
       <c r="BV34" s="5"/>
@@ -8999,27 +8844,27 @@
         <v>88</v>
       </c>
       <c r="CC34" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD34" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE34" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF34" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="CG34" s="10" t="s">
-        <v>275</v>
+        <v>651</v>
+      </c>
+      <c r="CF34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG34" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="CH34" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI34" s="5"/>
       <c r="CJ34" s="5"/>
     </row>
-    <row r="35" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="1">
         <v>5790</v>
@@ -9048,8 +8893,8 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="8" t="s">
-        <v>347</v>
+      <c r="O35" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>89</v>
@@ -9094,22 +8939,22 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
-      <c r="AT35" s="18" t="s">
+      <c r="AT35" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AU35" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="AV35" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="AW35" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="AU35" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="AV35" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="AW35" s="8" t="s">
-        <v>517</v>
       </c>
       <c r="AX35" s="5" t="s">
         <v>166</v>
@@ -9127,15 +8972,11 @@
       <c r="BG35" s="5">
         <v>1798</v>
       </c>
-      <c r="BH35" s="5"/>
-      <c r="BI35" s="5"/>
-      <c r="BJ35" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK35" s="5"/>
-      <c r="BL35" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH35" s="21"/>
+      <c r="BI35" s="21"/>
+      <c r="BJ35" s="21"/>
+      <c r="BK35" s="21"/>
+      <c r="BL35" s="22"/>
       <c r="BM35" s="5" t="s">
         <v>91</v>
       </c>
@@ -9153,8 +8994,8 @@
       <c r="BS35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT35" s="8" t="s">
-        <v>171</v>
+      <c r="BT35" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU35" s="5"/>
       <c r="BV35" s="5"/>
@@ -9167,27 +9008,27 @@
         <v>88</v>
       </c>
       <c r="CC35" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD35" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE35" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF35" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="CG35" s="8" t="s">
-        <v>276</v>
+        <v>651</v>
+      </c>
+      <c r="CF35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="CG35" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="CH35" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI35" s="5"/>
       <c r="CJ35" s="5"/>
     </row>
-    <row r="36" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="1">
         <v>5791</v>
@@ -9216,8 +9057,8 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="8" t="s">
-        <v>348</v>
+      <c r="O36" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>89</v>
@@ -9262,22 +9103,22 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
-      <c r="AT36" s="18" t="s">
+      <c r="AT36" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="AU36" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="AV36" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="AW36" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="AU36" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="AV36" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="AW36" s="8" t="s">
-        <v>521</v>
       </c>
       <c r="AX36" s="5" t="s">
         <v>166</v>
@@ -9295,15 +9136,11 @@
       <c r="BG36" s="5">
         <v>1798</v>
       </c>
-      <c r="BH36" s="5"/>
-      <c r="BI36" s="5"/>
-      <c r="BJ36" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK36" s="5"/>
-      <c r="BL36" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH36" s="21"/>
+      <c r="BI36" s="21"/>
+      <c r="BJ36" s="21"/>
+      <c r="BK36" s="21"/>
+      <c r="BL36" s="22"/>
       <c r="BM36" s="5" t="s">
         <v>91</v>
       </c>
@@ -9321,8 +9158,8 @@
       <c r="BS36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT36" s="8" t="s">
-        <v>171</v>
+      <c r="BT36" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU36" s="5"/>
       <c r="BV36" s="5"/>
@@ -9335,27 +9172,27 @@
         <v>88</v>
       </c>
       <c r="CC36" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD36" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE36" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF36" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="CG36" s="8" t="s">
-        <v>277</v>
+        <v>651</v>
+      </c>
+      <c r="CF36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG36" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="CH36" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI36" s="5"/>
       <c r="CJ36" s="5"/>
     </row>
-    <row r="37" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="1">
         <v>5792</v>
@@ -9384,8 +9221,8 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="8" t="s">
-        <v>349</v>
+      <c r="O37" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>89</v>
@@ -9430,22 +9267,22 @@
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
-      <c r="AT37" s="18" t="s">
+      <c r="AT37" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="AU37" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV37" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="AW37" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="AU37" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="AV37" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="AW37" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="AX37" s="5" t="s">
         <v>166</v>
@@ -9463,15 +9300,11 @@
       <c r="BG37" s="5">
         <v>1798</v>
       </c>
-      <c r="BH37" s="5"/>
-      <c r="BI37" s="5"/>
-      <c r="BJ37" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK37" s="5"/>
-      <c r="BL37" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="21"/>
+      <c r="BJ37" s="21"/>
+      <c r="BK37" s="21"/>
+      <c r="BL37" s="22"/>
       <c r="BM37" s="5" t="s">
         <v>91</v>
       </c>
@@ -9489,8 +9322,8 @@
       <c r="BS37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT37" s="8" t="s">
-        <v>171</v>
+      <c r="BT37" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU37" s="5"/>
       <c r="BV37" s="5"/>
@@ -9503,27 +9336,27 @@
         <v>88</v>
       </c>
       <c r="CC37" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD37" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE37" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF37" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="CG37" s="8" t="s">
-        <v>278</v>
+        <v>651</v>
+      </c>
+      <c r="CF37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CG37" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="CH37" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI37" s="5"/>
       <c r="CJ37" s="5"/>
     </row>
-    <row r="38" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="1">
         <v>5802</v>
@@ -9552,8 +9385,8 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="8" t="s">
-        <v>350</v>
+      <c r="O38" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>89</v>
@@ -9598,22 +9431,22 @@
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
       <c r="AS38" s="5"/>
-      <c r="AT38" s="18" t="s">
+      <c r="AT38" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU38" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="AV38" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="AW38" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="AU38" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="AV38" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="AW38" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="AX38" s="5" t="s">
         <v>166</v>
@@ -9631,15 +9464,11 @@
       <c r="BG38" s="5">
         <v>1798</v>
       </c>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="5"/>
-      <c r="BJ38" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK38" s="5"/>
-      <c r="BL38" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="21"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="21"/>
+      <c r="BL38" s="22"/>
       <c r="BM38" s="5" t="s">
         <v>91</v>
       </c>
@@ -9657,8 +9486,8 @@
       <c r="BS38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT38" s="8" t="s">
-        <v>171</v>
+      <c r="BT38" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU38" s="5"/>
       <c r="BV38" s="5"/>
@@ -9671,27 +9500,27 @@
         <v>88</v>
       </c>
       <c r="CC38" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD38" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE38" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF38" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="CG38" s="8" t="s">
-        <v>279</v>
+        <v>651</v>
+      </c>
+      <c r="CF38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG38" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="CH38" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI38" s="5"/>
       <c r="CJ38" s="5"/>
     </row>
-    <row r="39" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="1">
         <v>5803</v>
@@ -9720,8 +9549,8 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="8" t="s">
-        <v>351</v>
+      <c r="O39" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>89</v>
@@ -9766,22 +9595,22 @@
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5"/>
       <c r="AS39" s="5"/>
-      <c r="AT39" s="18" t="s">
+      <c r="AT39" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="AU39" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="AV39" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="AW39" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="AU39" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="AV39" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="AW39" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="AX39" s="5" t="s">
         <v>166</v>
@@ -9799,15 +9628,11 @@
       <c r="BG39" s="5">
         <v>1798</v>
       </c>
-      <c r="BH39" s="5"/>
-      <c r="BI39" s="5"/>
-      <c r="BJ39" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK39" s="5"/>
-      <c r="BL39" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="21"/>
+      <c r="BJ39" s="21"/>
+      <c r="BK39" s="21"/>
+      <c r="BL39" s="22"/>
       <c r="BM39" s="5" t="s">
         <v>91</v>
       </c>
@@ -9825,8 +9650,8 @@
       <c r="BS39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT39" s="8" t="s">
-        <v>171</v>
+      <c r="BT39" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU39" s="5"/>
       <c r="BV39" s="5"/>
@@ -9839,27 +9664,27 @@
         <v>88</v>
       </c>
       <c r="CC39" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD39" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE39" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF39" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="CG39" s="8" t="s">
-        <v>280</v>
+        <v>651</v>
+      </c>
+      <c r="CF39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CG39" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="CH39" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI39" s="5"/>
       <c r="CJ39" s="5"/>
     </row>
-    <row r="40" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="1">
         <v>5811</v>
@@ -9888,8 +9713,8 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="8" t="s">
-        <v>352</v>
+      <c r="O40" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>89</v>
@@ -9934,22 +9759,22 @@
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="5"/>
       <c r="AS40" s="5"/>
-      <c r="AT40" s="18" t="s">
+      <c r="AT40" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="AU40" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="AV40" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="AW40" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="AU40" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="AV40" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="AW40" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="AX40" s="5" t="s">
         <v>166</v>
@@ -9967,15 +9792,11 @@
       <c r="BG40" s="5">
         <v>1798</v>
       </c>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="5"/>
-      <c r="BJ40" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK40" s="5"/>
-      <c r="BL40" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH40" s="21"/>
+      <c r="BI40" s="21"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="21"/>
+      <c r="BL40" s="22"/>
       <c r="BM40" s="5" t="s">
         <v>91</v>
       </c>
@@ -9993,8 +9814,8 @@
       <c r="BS40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT40" s="8" t="s">
-        <v>171</v>
+      <c r="BT40" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU40" s="5"/>
       <c r="BV40" s="5"/>
@@ -10007,27 +9828,27 @@
         <v>88</v>
       </c>
       <c r="CC40" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD40" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE40" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF40" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="CG40" s="8" t="s">
-        <v>281</v>
+        <v>651</v>
+      </c>
+      <c r="CF40" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CG40" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="CH40" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI40" s="5"/>
       <c r="CJ40" s="5"/>
     </row>
-    <row r="41" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="1">
         <v>5822</v>
@@ -10056,8 +9877,8 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="8" t="s">
-        <v>353</v>
+      <c r="O41" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>89</v>
@@ -10102,22 +9923,22 @@
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
       <c r="AP41" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ41" s="5"/>
       <c r="AR41" s="5"/>
       <c r="AS41" s="5"/>
-      <c r="AT41" s="18" t="s">
+      <c r="AT41" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="AU41" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="AV41" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW41" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="AU41" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="AV41" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="AW41" s="8" t="s">
-        <v>541</v>
       </c>
       <c r="AX41" s="5" t="s">
         <v>166</v>
@@ -10135,15 +9956,11 @@
       <c r="BG41" s="5">
         <v>1798</v>
       </c>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
-      <c r="BJ41" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK41" s="5"/>
-      <c r="BL41" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH41" s="21"/>
+      <c r="BI41" s="21"/>
+      <c r="BJ41" s="21"/>
+      <c r="BK41" s="21"/>
+      <c r="BL41" s="22"/>
       <c r="BM41" s="5" t="s">
         <v>91</v>
       </c>
@@ -10161,8 +9978,8 @@
       <c r="BS41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT41" s="8" t="s">
-        <v>171</v>
+      <c r="BT41" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU41" s="5"/>
       <c r="BV41" s="5"/>
@@ -10175,27 +9992,27 @@
         <v>88</v>
       </c>
       <c r="CC41" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD41" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE41" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF41" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="CG41" s="8" t="s">
-        <v>282</v>
+        <v>651</v>
+      </c>
+      <c r="CF41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CG41" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="CH41" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI41" s="5"/>
       <c r="CJ41" s="5"/>
     </row>
-    <row r="42" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="1">
         <v>5869</v>
@@ -10224,8 +10041,8 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="8" t="s">
-        <v>354</v>
+      <c r="O42" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>89</v>
@@ -10270,22 +10087,22 @@
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
       <c r="AP42" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ42" s="5"/>
       <c r="AR42" s="5"/>
       <c r="AS42" s="5"/>
-      <c r="AT42" s="18" t="s">
+      <c r="AT42" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="AU42" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="AV42" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW42" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="AU42" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="AV42" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="AW42" s="8" t="s">
-        <v>545</v>
       </c>
       <c r="AX42" s="5" t="s">
         <v>166</v>
@@ -10303,15 +10120,11 @@
       <c r="BG42" s="5">
         <v>1798</v>
       </c>
-      <c r="BH42" s="5"/>
-      <c r="BI42" s="5"/>
-      <c r="BJ42" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK42" s="5"/>
-      <c r="BL42" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH42" s="21"/>
+      <c r="BI42" s="21"/>
+      <c r="BJ42" s="21"/>
+      <c r="BK42" s="21"/>
+      <c r="BL42" s="22"/>
       <c r="BM42" s="5" t="s">
         <v>91</v>
       </c>
@@ -10329,8 +10142,8 @@
       <c r="BS42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT42" s="8" t="s">
-        <v>171</v>
+      <c r="BT42" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU42" s="5"/>
       <c r="BV42" s="5"/>
@@ -10343,27 +10156,27 @@
         <v>88</v>
       </c>
       <c r="CC42" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD42" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE42" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF42" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="CG42" s="8" t="s">
-        <v>283</v>
+        <v>651</v>
+      </c>
+      <c r="CF42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="CG42" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="CH42" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI42" s="5"/>
       <c r="CJ42" s="5"/>
     </row>
-    <row r="43" spans="1:88" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:88" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="1">
         <v>6012</v>
@@ -10392,8 +10205,8 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="8" t="s">
-        <v>355</v>
+      <c r="O43" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>89</v>
@@ -10438,22 +10251,22 @@
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ43" s="5"/>
       <c r="AR43" s="5"/>
       <c r="AS43" s="5"/>
-      <c r="AT43" s="21" t="s">
+      <c r="AT43" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="AU43" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="AV43" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AW43" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="AU43" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV43" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="AW43" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="AX43" s="5" t="s">
         <v>166</v>
@@ -10471,15 +10284,11 @@
       <c r="BG43" s="5">
         <v>1798</v>
       </c>
-      <c r="BH43" s="5"/>
-      <c r="BI43" s="5"/>
-      <c r="BJ43" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK43" s="5"/>
-      <c r="BL43" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH43" s="21"/>
+      <c r="BI43" s="21"/>
+      <c r="BJ43" s="21"/>
+      <c r="BK43" s="21"/>
+      <c r="BL43" s="22"/>
       <c r="BM43" s="5" t="s">
         <v>91</v>
       </c>
@@ -10497,8 +10306,8 @@
       <c r="BS43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT43" s="8" t="s">
-        <v>171</v>
+      <c r="BT43" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU43" s="5"/>
       <c r="BV43" s="5"/>
@@ -10511,27 +10320,27 @@
         <v>88</v>
       </c>
       <c r="CC43" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD43" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE43" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="CG43" s="11" t="s">
-        <v>284</v>
+        <v>651</v>
+      </c>
+      <c r="CF43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="CG43" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="CH43" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI43" s="5"/>
       <c r="CJ43" s="5"/>
     </row>
-    <row r="44" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="1">
         <v>5897</v>
@@ -10560,8 +10369,8 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="8" t="s">
-        <v>356</v>
+      <c r="O44" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>89</v>
@@ -10606,22 +10415,22 @@
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ44" s="5"/>
       <c r="AR44" s="5"/>
       <c r="AS44" s="5"/>
-      <c r="AT44" s="18" t="s">
+      <c r="AT44" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="AU44" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV44" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="AW44" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="AU44" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="AV44" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="AW44" s="8" t="s">
-        <v>553</v>
       </c>
       <c r="AX44" s="5" t="s">
         <v>167</v>
@@ -10639,15 +10448,11 @@
       <c r="BG44" s="5">
         <v>1798</v>
       </c>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="5"/>
-      <c r="BJ44" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK44" s="5"/>
-      <c r="BL44" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH44" s="21"/>
+      <c r="BI44" s="21"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="21"/>
+      <c r="BL44" s="22"/>
       <c r="BM44" s="5" t="s">
         <v>91</v>
       </c>
@@ -10665,8 +10470,8 @@
       <c r="BS44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT44" s="8" t="s">
-        <v>171</v>
+      <c r="BT44" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU44" s="5"/>
       <c r="BV44" s="5"/>
@@ -10679,27 +10484,27 @@
         <v>88</v>
       </c>
       <c r="CC44" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD44" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE44" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF44" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="CG44" s="10" t="s">
-        <v>285</v>
+        <v>651</v>
+      </c>
+      <c r="CF44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="CG44" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="CH44" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI44" s="5"/>
       <c r="CJ44" s="5"/>
     </row>
-    <row r="45" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="1">
         <v>5923</v>
@@ -10728,8 +10533,8 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="8" t="s">
-        <v>357</v>
+      <c r="O45" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>89</v>
@@ -10774,22 +10579,22 @@
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ45" s="5"/>
       <c r="AR45" s="5"/>
       <c r="AS45" s="5"/>
-      <c r="AT45" s="18" t="s">
+      <c r="AT45" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="AU45" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="AV45" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="AW45" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="AU45" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="AV45" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AW45" s="8" t="s">
-        <v>557</v>
       </c>
       <c r="AX45" s="5" t="s">
         <v>167</v>
@@ -10807,15 +10612,11 @@
       <c r="BG45" s="5">
         <v>1798</v>
       </c>
-      <c r="BH45" s="5"/>
-      <c r="BI45" s="5"/>
-      <c r="BJ45" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK45" s="5"/>
-      <c r="BL45" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH45" s="21"/>
+      <c r="BI45" s="21"/>
+      <c r="BJ45" s="21"/>
+      <c r="BK45" s="21"/>
+      <c r="BL45" s="22"/>
       <c r="BM45" s="5" t="s">
         <v>91</v>
       </c>
@@ -10833,8 +10634,8 @@
       <c r="BS45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT45" s="8" t="s">
-        <v>171</v>
+      <c r="BT45" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU45" s="5"/>
       <c r="BV45" s="5"/>
@@ -10847,27 +10648,27 @@
         <v>88</v>
       </c>
       <c r="CC45" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD45" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE45" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF45" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="CG45" s="8" t="s">
-        <v>286</v>
+        <v>651</v>
+      </c>
+      <c r="CF45" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG45" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="CH45" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI45" s="5"/>
       <c r="CJ45" s="5"/>
     </row>
-    <row r="46" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="1">
         <v>5926</v>
@@ -10896,8 +10697,8 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="8" t="s">
-        <v>358</v>
+      <c r="O46" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>89</v>
@@ -10942,22 +10743,22 @@
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ46" s="5"/>
       <c r="AR46" s="5"/>
       <c r="AS46" s="5"/>
-      <c r="AT46" s="18" t="s">
+      <c r="AT46" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="AU46" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="AV46" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="AW46" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="AU46" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="AV46" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="AW46" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="AX46" s="5" t="s">
         <v>167</v>
@@ -10975,15 +10776,11 @@
       <c r="BG46" s="5">
         <v>1798</v>
       </c>
-      <c r="BH46" s="5"/>
-      <c r="BI46" s="5"/>
-      <c r="BJ46" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK46" s="5"/>
-      <c r="BL46" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH46" s="21"/>
+      <c r="BI46" s="21"/>
+      <c r="BJ46" s="21"/>
+      <c r="BK46" s="21"/>
+      <c r="BL46" s="22"/>
       <c r="BM46" s="5" t="s">
         <v>91</v>
       </c>
@@ -11001,8 +10798,8 @@
       <c r="BS46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT46" s="8" t="s">
-        <v>171</v>
+      <c r="BT46" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU46" s="5"/>
       <c r="BV46" s="5"/>
@@ -11015,27 +10812,27 @@
         <v>88</v>
       </c>
       <c r="CC46" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD46" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE46" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF46" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="CG46" s="8" t="s">
-        <v>287</v>
+        <v>651</v>
+      </c>
+      <c r="CF46" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG46" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="CH46" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI46" s="5"/>
       <c r="CJ46" s="5"/>
     </row>
-    <row r="47" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="1">
         <v>5970</v>
@@ -11064,8 +10861,8 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="8" t="s">
-        <v>359</v>
+      <c r="O47" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>89</v>
@@ -11110,22 +10907,22 @@
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
       <c r="AP47" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ47" s="5"/>
       <c r="AR47" s="5"/>
       <c r="AS47" s="5"/>
-      <c r="AT47" s="18" t="s">
+      <c r="AT47" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="AU47" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV47" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="AW47" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="AU47" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="AV47" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="AW47" s="8" t="s">
-        <v>565</v>
       </c>
       <c r="AX47" s="5" t="s">
         <v>167</v>
@@ -11143,15 +10940,11 @@
       <c r="BG47" s="5">
         <v>1798</v>
       </c>
-      <c r="BH47" s="5"/>
-      <c r="BI47" s="5"/>
-      <c r="BJ47" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK47" s="5"/>
-      <c r="BL47" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH47" s="21"/>
+      <c r="BI47" s="21"/>
+      <c r="BJ47" s="21"/>
+      <c r="BK47" s="21"/>
+      <c r="BL47" s="22"/>
       <c r="BM47" s="5" t="s">
         <v>91</v>
       </c>
@@ -11169,8 +10962,8 @@
       <c r="BS47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT47" s="8" t="s">
-        <v>174</v>
+      <c r="BT47" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="BU47" s="5"/>
       <c r="BV47" s="5"/>
@@ -11183,27 +10976,27 @@
         <v>88</v>
       </c>
       <c r="CC47" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD47" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE47" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF47" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="CG47" s="8" t="s">
-        <v>288</v>
+        <v>651</v>
+      </c>
+      <c r="CF47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="CG47" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="CH47" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI47" s="5"/>
       <c r="CJ47" s="5"/>
     </row>
-    <row r="48" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="1">
         <v>6007</v>
@@ -11232,8 +11025,8 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="8" t="s">
-        <v>360</v>
+      <c r="O48" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>89</v>
@@ -11278,22 +11071,22 @@
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
       <c r="AP48" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ48" s="5"/>
       <c r="AR48" s="5"/>
       <c r="AS48" s="5"/>
-      <c r="AT48" s="18" t="s">
+      <c r="AT48" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU48" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="AV48" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="AW48" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="AU48" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="AV48" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="AW48" s="8" t="s">
-        <v>569</v>
       </c>
       <c r="AX48" s="5" t="s">
         <v>167</v>
@@ -11311,15 +11104,11 @@
       <c r="BG48" s="5">
         <v>1798</v>
       </c>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK48" s="5"/>
-      <c r="BL48" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH48" s="21"/>
+      <c r="BI48" s="21"/>
+      <c r="BJ48" s="21"/>
+      <c r="BK48" s="21"/>
+      <c r="BL48" s="22"/>
       <c r="BM48" s="5" t="s">
         <v>91</v>
       </c>
@@ -11337,8 +11126,8 @@
       <c r="BS48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT48" s="8" t="s">
-        <v>171</v>
+      <c r="BT48" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU48" s="5"/>
       <c r="BV48" s="5"/>
@@ -11351,27 +11140,27 @@
         <v>88</v>
       </c>
       <c r="CC48" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD48" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE48" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF48" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="CG48" s="8" t="s">
-        <v>289</v>
+        <v>651</v>
+      </c>
+      <c r="CF48" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG48" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="CH48" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI48" s="5"/>
       <c r="CJ48" s="5"/>
     </row>
-    <row r="49" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="1">
         <v>6011</v>
@@ -11400,8 +11189,8 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="8" t="s">
-        <v>361</v>
+      <c r="O49" s="7" t="s">
+        <v>358</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>89</v>
@@ -11446,22 +11235,22 @@
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
       <c r="AP49" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ49" s="5"/>
       <c r="AR49" s="5"/>
       <c r="AS49" s="5"/>
-      <c r="AT49" s="18" t="s">
+      <c r="AT49" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="AU49" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="AV49" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="AW49" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="AU49" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="AV49" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="AW49" s="8" t="s">
-        <v>573</v>
       </c>
       <c r="AX49" s="5" t="s">
         <v>167</v>
@@ -11479,15 +11268,11 @@
       <c r="BG49" s="5">
         <v>1798</v>
       </c>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK49" s="5"/>
-      <c r="BL49" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH49" s="21"/>
+      <c r="BI49" s="21"/>
+      <c r="BJ49" s="21"/>
+      <c r="BK49" s="21"/>
+      <c r="BL49" s="22"/>
       <c r="BM49" s="5" t="s">
         <v>91</v>
       </c>
@@ -11505,8 +11290,8 @@
       <c r="BS49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT49" s="8" t="s">
-        <v>171</v>
+      <c r="BT49" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU49" s="5"/>
       <c r="BV49" s="5"/>
@@ -11519,27 +11304,27 @@
         <v>88</v>
       </c>
       <c r="CC49" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD49" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE49" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF49" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="CG49" s="8" t="s">
-        <v>290</v>
+        <v>651</v>
+      </c>
+      <c r="CF49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CG49" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="CH49" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI49" s="5"/>
       <c r="CJ49" s="5"/>
     </row>
-    <row r="50" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="1">
         <v>6013</v>
@@ -11568,8 +11353,8 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="8" t="s">
-        <v>362</v>
+      <c r="O50" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>89</v>
@@ -11614,22 +11399,22 @@
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
       <c r="AP50" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ50" s="5"/>
       <c r="AR50" s="5"/>
       <c r="AS50" s="5"/>
-      <c r="AT50" s="18" t="s">
+      <c r="AT50" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="AU50" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="AV50" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="AW50" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="AU50" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="AV50" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="AW50" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="AX50" s="5" t="s">
         <v>167</v>
@@ -11647,15 +11432,11 @@
       <c r="BG50" s="5">
         <v>1798</v>
       </c>
-      <c r="BH50" s="5"/>
-      <c r="BI50" s="5"/>
-      <c r="BJ50" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK50" s="5"/>
-      <c r="BL50" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH50" s="21"/>
+      <c r="BI50" s="21"/>
+      <c r="BJ50" s="21"/>
+      <c r="BK50" s="21"/>
+      <c r="BL50" s="22"/>
       <c r="BM50" s="5" t="s">
         <v>91</v>
       </c>
@@ -11673,8 +11454,8 @@
       <c r="BS50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT50" s="8" t="s">
-        <v>171</v>
+      <c r="BT50" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU50" s="5"/>
       <c r="BV50" s="5"/>
@@ -11687,27 +11468,27 @@
         <v>88</v>
       </c>
       <c r="CC50" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD50" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE50" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF50" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="CG50" s="8" t="s">
-        <v>291</v>
+        <v>651</v>
+      </c>
+      <c r="CF50" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CG50" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="CH50" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI50" s="5"/>
       <c r="CJ50" s="5"/>
     </row>
-    <row r="51" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="1">
         <v>6014</v>
@@ -11736,8 +11517,8 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="8" t="s">
-        <v>363</v>
+      <c r="O51" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>89</v>
@@ -11782,22 +11563,22 @@
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
       <c r="AP51" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ51" s="5"/>
       <c r="AR51" s="5"/>
       <c r="AS51" s="5"/>
-      <c r="AT51" s="18" t="s">
+      <c r="AT51" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU51" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="AV51" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="AW51" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="AU51" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="AV51" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="AW51" s="8" t="s">
-        <v>581</v>
       </c>
       <c r="AX51" s="5" t="s">
         <v>167</v>
@@ -11815,15 +11596,11 @@
       <c r="BG51" s="5">
         <v>1798</v>
       </c>
-      <c r="BH51" s="5"/>
-      <c r="BI51" s="5"/>
-      <c r="BJ51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK51" s="5"/>
-      <c r="BL51" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH51" s="21"/>
+      <c r="BI51" s="21"/>
+      <c r="BJ51" s="21"/>
+      <c r="BK51" s="21"/>
+      <c r="BL51" s="22"/>
       <c r="BM51" s="5" t="s">
         <v>91</v>
       </c>
@@ -11841,8 +11618,8 @@
       <c r="BS51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT51" s="8" t="s">
-        <v>171</v>
+      <c r="BT51" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU51" s="5"/>
       <c r="BV51" s="5"/>
@@ -11855,27 +11632,27 @@
         <v>88</v>
       </c>
       <c r="CC51" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD51" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE51" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF51" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="CG51" s="8" t="s">
-        <v>292</v>
+        <v>651</v>
+      </c>
+      <c r="CF51" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CG51" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="CH51" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI51" s="5"/>
       <c r="CJ51" s="5"/>
     </row>
-    <row r="52" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="1">
         <v>6023</v>
@@ -11904,8 +11681,8 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="8" t="s">
-        <v>364</v>
+      <c r="O52" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>89</v>
@@ -11950,22 +11727,22 @@
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
       <c r="AP52" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ52" s="5"/>
       <c r="AR52" s="5"/>
       <c r="AS52" s="5"/>
-      <c r="AT52" s="18" t="s">
+      <c r="AT52" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="AU52" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="AV52" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="AW52" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="AU52" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="AV52" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="AW52" s="8" t="s">
-        <v>585</v>
       </c>
       <c r="AX52" s="5" t="s">
         <v>167</v>
@@ -11983,15 +11760,11 @@
       <c r="BG52" s="5">
         <v>1798</v>
       </c>
-      <c r="BH52" s="5"/>
-      <c r="BI52" s="5"/>
-      <c r="BJ52" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK52" s="5"/>
-      <c r="BL52" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH52" s="21"/>
+      <c r="BI52" s="21"/>
+      <c r="BJ52" s="21"/>
+      <c r="BK52" s="21"/>
+      <c r="BL52" s="22"/>
       <c r="BM52" s="5" t="s">
         <v>91</v>
       </c>
@@ -12009,8 +11782,8 @@
       <c r="BS52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT52" s="8" t="s">
-        <v>171</v>
+      <c r="BT52" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU52" s="5"/>
       <c r="BV52" s="5"/>
@@ -12023,27 +11796,27 @@
         <v>88</v>
       </c>
       <c r="CC52" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD52" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE52" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF52" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="CG52" s="8" t="s">
-        <v>293</v>
+        <v>651</v>
+      </c>
+      <c r="CF52" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CG52" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="CH52" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI52" s="5"/>
       <c r="CJ52" s="5"/>
     </row>
-    <row r="53" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="1">
         <v>6025</v>
@@ -12072,8 +11845,8 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="8" t="s">
-        <v>365</v>
+      <c r="O53" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>89</v>
@@ -12118,22 +11891,22 @@
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
       <c r="AP53" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ53" s="5"/>
       <c r="AR53" s="5"/>
       <c r="AS53" s="5"/>
-      <c r="AT53" s="18" t="s">
+      <c r="AT53" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU53" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="AV53" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="AW53" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="AU53" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="AV53" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="AW53" s="8" t="s">
-        <v>589</v>
       </c>
       <c r="AX53" s="5" t="s">
         <v>167</v>
@@ -12151,15 +11924,11 @@
       <c r="BG53" s="5">
         <v>1798</v>
       </c>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK53" s="5"/>
-      <c r="BL53" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH53" s="21"/>
+      <c r="BI53" s="21"/>
+      <c r="BJ53" s="21"/>
+      <c r="BK53" s="21"/>
+      <c r="BL53" s="22"/>
       <c r="BM53" s="5" t="s">
         <v>91</v>
       </c>
@@ -12177,8 +11946,8 @@
       <c r="BS53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT53" s="8" t="s">
-        <v>171</v>
+      <c r="BT53" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU53" s="5"/>
       <c r="BV53" s="5"/>
@@ -12191,27 +11960,27 @@
         <v>88</v>
       </c>
       <c r="CC53" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD53" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE53" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF53" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="CG53" s="8" t="s">
-        <v>294</v>
+        <v>651</v>
+      </c>
+      <c r="CF53" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CG53" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="CH53" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI53" s="5"/>
       <c r="CJ53" s="5"/>
     </row>
-    <row r="54" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="1">
         <v>6028</v>
@@ -12240,8 +12009,8 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="8" t="s">
-        <v>366</v>
+      <c r="O54" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>89</v>
@@ -12286,22 +12055,22 @@
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
       <c r="AP54" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ54" s="5"/>
       <c r="AR54" s="5"/>
       <c r="AS54" s="5"/>
-      <c r="AT54" s="18" t="s">
+      <c r="AT54" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="AU54" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="AV54" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="AW54" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="AU54" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="AV54" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="AW54" s="8" t="s">
-        <v>593</v>
       </c>
       <c r="AX54" s="5" t="s">
         <v>167</v>
@@ -12319,15 +12088,11 @@
       <c r="BG54" s="5">
         <v>1798</v>
       </c>
-      <c r="BH54" s="5"/>
-      <c r="BI54" s="5"/>
-      <c r="BJ54" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK54" s="5"/>
-      <c r="BL54" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH54" s="21"/>
+      <c r="BI54" s="21"/>
+      <c r="BJ54" s="21"/>
+      <c r="BK54" s="21"/>
+      <c r="BL54" s="22"/>
       <c r="BM54" s="5" t="s">
         <v>91</v>
       </c>
@@ -12345,8 +12110,8 @@
       <c r="BS54" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT54" s="8" t="s">
-        <v>171</v>
+      <c r="BT54" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU54" s="5"/>
       <c r="BV54" s="5"/>
@@ -12359,27 +12124,27 @@
         <v>88</v>
       </c>
       <c r="CC54" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD54" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE54" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF54" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="CG54" s="8" t="s">
-        <v>295</v>
+        <v>651</v>
+      </c>
+      <c r="CF54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CG54" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="CH54" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI54" s="5"/>
       <c r="CJ54" s="5"/>
     </row>
-    <row r="55" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="1">
         <v>6034</v>
@@ -12408,8 +12173,8 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="8" t="s">
-        <v>367</v>
+      <c r="O55" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>89</v>
@@ -12454,22 +12219,22 @@
       <c r="AN55" s="5"/>
       <c r="AO55" s="5"/>
       <c r="AP55" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ55" s="5"/>
       <c r="AR55" s="5"/>
       <c r="AS55" s="5"/>
-      <c r="AT55" s="18" t="s">
+      <c r="AT55" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="AU55" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="AV55" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="AW55" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="AU55" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="AV55" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="AW55" s="8" t="s">
-        <v>597</v>
       </c>
       <c r="AX55" s="5" t="s">
         <v>167</v>
@@ -12487,15 +12252,11 @@
       <c r="BG55" s="5">
         <v>1798</v>
       </c>
-      <c r="BH55" s="5"/>
-      <c r="BI55" s="5"/>
-      <c r="BJ55" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK55" s="5"/>
-      <c r="BL55" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH55" s="21"/>
+      <c r="BI55" s="21"/>
+      <c r="BJ55" s="21"/>
+      <c r="BK55" s="21"/>
+      <c r="BL55" s="22"/>
       <c r="BM55" s="5" t="s">
         <v>91</v>
       </c>
@@ -12513,8 +12274,8 @@
       <c r="BS55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT55" s="8" t="s">
-        <v>171</v>
+      <c r="BT55" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU55" s="5"/>
       <c r="BV55" s="5"/>
@@ -12527,27 +12288,27 @@
         <v>88</v>
       </c>
       <c r="CC55" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD55" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE55" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF55" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="CG55" s="8" t="s">
-        <v>296</v>
+        <v>651</v>
+      </c>
+      <c r="CF55" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CG55" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="CH55" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI55" s="5"/>
       <c r="CJ55" s="5"/>
     </row>
-    <row r="56" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="1">
         <v>6035</v>
@@ -12576,8 +12337,8 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="8" t="s">
-        <v>368</v>
+      <c r="O56" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>89</v>
@@ -12622,22 +12383,22 @@
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
       <c r="AP56" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ56" s="5"/>
       <c r="AR56" s="5"/>
       <c r="AS56" s="5"/>
-      <c r="AT56" s="18" t="s">
+      <c r="AT56" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="AU56" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AV56" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AW56" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="AU56" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="AV56" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="AW56" s="8" t="s">
-        <v>601</v>
       </c>
       <c r="AX56" s="5" t="s">
         <v>167</v>
@@ -12655,15 +12416,11 @@
       <c r="BG56" s="5">
         <v>1798</v>
       </c>
-      <c r="BH56" s="5"/>
-      <c r="BI56" s="5"/>
-      <c r="BJ56" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK56" s="5"/>
-      <c r="BL56" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH56" s="21"/>
+      <c r="BI56" s="21"/>
+      <c r="BJ56" s="21"/>
+      <c r="BK56" s="21"/>
+      <c r="BL56" s="22"/>
       <c r="BM56" s="5" t="s">
         <v>91</v>
       </c>
@@ -12681,8 +12438,8 @@
       <c r="BS56" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT56" s="8" t="s">
-        <v>171</v>
+      <c r="BT56" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU56" s="5"/>
       <c r="BV56" s="5"/>
@@ -12695,27 +12452,27 @@
         <v>88</v>
       </c>
       <c r="CC56" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD56" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE56" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF56" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="CG56" s="8" t="s">
-        <v>297</v>
+        <v>651</v>
+      </c>
+      <c r="CF56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CG56" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="CH56" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI56" s="5"/>
       <c r="CJ56" s="5"/>
     </row>
-    <row r="57" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="1">
         <v>6038</v>
@@ -12744,8 +12501,8 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="8" t="s">
-        <v>369</v>
+      <c r="O57" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>89</v>
@@ -12790,22 +12547,22 @@
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
       <c r="AP57" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ57" s="5"/>
       <c r="AR57" s="5"/>
       <c r="AS57" s="5"/>
-      <c r="AT57" s="18" t="s">
+      <c r="AT57" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="AU57" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AV57" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="AW57" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="AU57" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="AV57" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="AW57" s="8" t="s">
-        <v>605</v>
       </c>
       <c r="AX57" s="5" t="s">
         <v>167</v>
@@ -12823,15 +12580,11 @@
       <c r="BG57" s="5">
         <v>1798</v>
       </c>
-      <c r="BH57" s="5"/>
-      <c r="BI57" s="5"/>
-      <c r="BJ57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK57" s="5"/>
-      <c r="BL57" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH57" s="21"/>
+      <c r="BI57" s="21"/>
+      <c r="BJ57" s="21"/>
+      <c r="BK57" s="21"/>
+      <c r="BL57" s="22"/>
       <c r="BM57" s="5" t="s">
         <v>91</v>
       </c>
@@ -12849,8 +12602,8 @@
       <c r="BS57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT57" s="8" t="s">
-        <v>171</v>
+      <c r="BT57" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU57" s="5"/>
       <c r="BV57" s="5"/>
@@ -12863,27 +12616,27 @@
         <v>88</v>
       </c>
       <c r="CC57" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD57" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE57" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF57" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="CG57" s="8" t="s">
-        <v>298</v>
+        <v>651</v>
+      </c>
+      <c r="CF57" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CG57" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="CH57" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI57" s="5"/>
       <c r="CJ57" s="5"/>
     </row>
-    <row r="58" spans="1:88" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:88" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="1">
         <v>6042</v>
@@ -12912,8 +12665,8 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="8" t="s">
-        <v>370</v>
+      <c r="O58" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>89</v>
@@ -12958,22 +12711,22 @@
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
       <c r="AP58" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ58" s="5"/>
       <c r="AR58" s="5"/>
       <c r="AS58" s="5"/>
-      <c r="AT58" s="19" t="s">
+      <c r="AT58" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="AU58" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="AV58" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="AW58" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="AU58" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="AV58" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="AW58" s="8" t="s">
-        <v>609</v>
       </c>
       <c r="AX58" s="5" t="s">
         <v>167</v>
@@ -12991,15 +12744,11 @@
       <c r="BG58" s="5">
         <v>1798</v>
       </c>
-      <c r="BH58" s="5"/>
-      <c r="BI58" s="5"/>
-      <c r="BJ58" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK58" s="5"/>
-      <c r="BL58" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH58" s="21"/>
+      <c r="BI58" s="21"/>
+      <c r="BJ58" s="21"/>
+      <c r="BK58" s="21"/>
+      <c r="BL58" s="22"/>
       <c r="BM58" s="5" t="s">
         <v>91</v>
       </c>
@@ -13017,8 +12766,8 @@
       <c r="BS58" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT58" s="8" t="s">
-        <v>171</v>
+      <c r="BT58" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU58" s="5"/>
       <c r="BV58" s="5"/>
@@ -13031,27 +12780,27 @@
         <v>88</v>
       </c>
       <c r="CC58" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD58" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE58" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF58" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="CG58" s="9" t="s">
-        <v>299</v>
+        <v>651</v>
+      </c>
+      <c r="CF58" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG58" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="CH58" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI58" s="5"/>
       <c r="CJ58" s="5"/>
     </row>
-    <row r="59" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="1">
         <v>7893</v>
@@ -13080,8 +12829,8 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="8" t="s">
-        <v>371</v>
+      <c r="O59" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>89</v>
@@ -13126,22 +12875,22 @@
       <c r="AN59" s="5"/>
       <c r="AO59" s="5"/>
       <c r="AP59" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ59" s="5"/>
       <c r="AR59" s="5"/>
       <c r="AS59" s="5"/>
-      <c r="AT59" s="20" t="s">
+      <c r="AT59" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="AU59" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AV59" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="AW59" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="AU59" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="AV59" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="AW59" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="AX59" s="5" t="s">
         <v>168</v>
@@ -13159,15 +12908,11 @@
       <c r="BG59" s="5">
         <v>1798</v>
       </c>
-      <c r="BH59" s="5"/>
-      <c r="BI59" s="5"/>
-      <c r="BJ59" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK59" s="5"/>
-      <c r="BL59" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH59" s="21"/>
+      <c r="BI59" s="21"/>
+      <c r="BJ59" s="21"/>
+      <c r="BK59" s="21"/>
+      <c r="BL59" s="22"/>
       <c r="BM59" s="5" t="s">
         <v>91</v>
       </c>
@@ -13185,8 +12930,8 @@
       <c r="BS59" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT59" s="8" t="s">
-        <v>171</v>
+      <c r="BT59" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU59" s="5"/>
       <c r="BV59" s="5"/>
@@ -13199,27 +12944,27 @@
         <v>88</v>
       </c>
       <c r="CC59" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD59" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE59" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF59" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="CG59" s="10" t="s">
-        <v>300</v>
+        <v>651</v>
+      </c>
+      <c r="CF59" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CG59" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="CH59" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI59" s="5"/>
       <c r="CJ59" s="5"/>
     </row>
-    <row r="60" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="1">
         <v>7896</v>
@@ -13248,8 +12993,8 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="8" t="s">
-        <v>372</v>
+      <c r="O60" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="P60" s="5" t="s">
         <v>89</v>
@@ -13294,22 +13039,22 @@
       <c r="AN60" s="5"/>
       <c r="AO60" s="5"/>
       <c r="AP60" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ60" s="5"/>
       <c r="AR60" s="5"/>
       <c r="AS60" s="5"/>
-      <c r="AT60" s="18" t="s">
+      <c r="AT60" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU60" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="AV60" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="AW60" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="AU60" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="AV60" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="AW60" s="8" t="s">
-        <v>617</v>
       </c>
       <c r="AX60" s="5" t="s">
         <v>168</v>
@@ -13327,15 +13072,11 @@
       <c r="BG60" s="5">
         <v>1798</v>
       </c>
-      <c r="BH60" s="5"/>
-      <c r="BI60" s="5"/>
-      <c r="BJ60" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK60" s="5"/>
-      <c r="BL60" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH60" s="21"/>
+      <c r="BI60" s="21"/>
+      <c r="BJ60" s="21"/>
+      <c r="BK60" s="21"/>
+      <c r="BL60" s="22"/>
       <c r="BM60" s="5" t="s">
         <v>91</v>
       </c>
@@ -13353,8 +13094,8 @@
       <c r="BS60" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT60" s="8" t="s">
-        <v>171</v>
+      <c r="BT60" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU60" s="5"/>
       <c r="BV60" s="5"/>
@@ -13367,27 +13108,27 @@
         <v>88</v>
       </c>
       <c r="CC60" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD60" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE60" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF60" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="CG60" s="8" t="s">
-        <v>301</v>
+        <v>651</v>
+      </c>
+      <c r="CF60" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CG60" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="CH60" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI60" s="5"/>
       <c r="CJ60" s="5"/>
     </row>
-    <row r="61" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="1">
         <v>7898</v>
@@ -13416,8 +13157,8 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="8" t="s">
-        <v>373</v>
+      <c r="O61" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>89</v>
@@ -13462,22 +13203,22 @@
       <c r="AN61" s="5"/>
       <c r="AO61" s="5"/>
       <c r="AP61" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ61" s="5"/>
       <c r="AR61" s="5"/>
       <c r="AS61" s="5"/>
-      <c r="AT61" s="18" t="s">
+      <c r="AT61" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="AU61" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="AV61" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="AW61" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="AU61" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="AV61" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="AW61" s="8" t="s">
-        <v>621</v>
       </c>
       <c r="AX61" s="5" t="s">
         <v>168</v>
@@ -13495,15 +13236,11 @@
       <c r="BG61" s="5">
         <v>1798</v>
       </c>
-      <c r="BH61" s="5"/>
-      <c r="BI61" s="5"/>
-      <c r="BJ61" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK61" s="5"/>
-      <c r="BL61" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH61" s="21"/>
+      <c r="BI61" s="21"/>
+      <c r="BJ61" s="21"/>
+      <c r="BK61" s="21"/>
+      <c r="BL61" s="22"/>
       <c r="BM61" s="5" t="s">
         <v>91</v>
       </c>
@@ -13521,8 +13258,8 @@
       <c r="BS61" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT61" s="8" t="s">
-        <v>171</v>
+      <c r="BT61" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU61" s="5"/>
       <c r="BV61" s="5"/>
@@ -13535,27 +13272,27 @@
         <v>88</v>
       </c>
       <c r="CC61" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD61" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE61" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF61" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="CG61" s="8" t="s">
-        <v>302</v>
+        <v>651</v>
+      </c>
+      <c r="CF61" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="CG61" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="CH61" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI61" s="5"/>
       <c r="CJ61" s="5"/>
     </row>
-    <row r="62" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="1">
         <v>7900</v>
@@ -13584,8 +13321,8 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="8" t="s">
-        <v>374</v>
+      <c r="O62" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>89</v>
@@ -13630,22 +13367,22 @@
       <c r="AN62" s="5"/>
       <c r="AO62" s="5"/>
       <c r="AP62" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ62" s="5"/>
       <c r="AR62" s="5"/>
       <c r="AS62" s="5"/>
-      <c r="AT62" s="18" t="s">
+      <c r="AT62" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="AU62" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AV62" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="AW62" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="AU62" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="AV62" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="AW62" s="8" t="s">
-        <v>625</v>
       </c>
       <c r="AX62" s="5" t="s">
         <v>168</v>
@@ -13663,15 +13400,11 @@
       <c r="BG62" s="5">
         <v>1798</v>
       </c>
-      <c r="BH62" s="5"/>
-      <c r="BI62" s="5"/>
-      <c r="BJ62" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK62" s="5"/>
-      <c r="BL62" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH62" s="21"/>
+      <c r="BI62" s="21"/>
+      <c r="BJ62" s="21"/>
+      <c r="BK62" s="21"/>
+      <c r="BL62" s="22"/>
       <c r="BM62" s="5" t="s">
         <v>91</v>
       </c>
@@ -13689,8 +13422,8 @@
       <c r="BS62" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT62" s="8" t="s">
-        <v>171</v>
+      <c r="BT62" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU62" s="5"/>
       <c r="BV62" s="5"/>
@@ -13703,27 +13436,27 @@
         <v>88</v>
       </c>
       <c r="CC62" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD62" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE62" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF62" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="CG62" s="8" t="s">
-        <v>303</v>
+        <v>651</v>
+      </c>
+      <c r="CF62" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="CG62" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="CH62" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI62" s="5"/>
       <c r="CJ62" s="5"/>
     </row>
-    <row r="63" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="1">
         <v>7916</v>
@@ -13752,8 +13485,8 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="8" t="s">
-        <v>375</v>
+      <c r="O63" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>89</v>
@@ -13798,22 +13531,22 @@
       <c r="AN63" s="5"/>
       <c r="AO63" s="5"/>
       <c r="AP63" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ63" s="5"/>
       <c r="AR63" s="5"/>
       <c r="AS63" s="5"/>
-      <c r="AT63" s="18" t="s">
+      <c r="AT63" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="AU63" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="AV63" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="AW63" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="AU63" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="AV63" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="AW63" s="8" t="s">
-        <v>629</v>
       </c>
       <c r="AX63" s="5" t="s">
         <v>168</v>
@@ -13831,15 +13564,11 @@
       <c r="BG63" s="5">
         <v>1798</v>
       </c>
-      <c r="BH63" s="5"/>
-      <c r="BI63" s="5"/>
-      <c r="BJ63" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK63" s="5"/>
-      <c r="BL63" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH63" s="21"/>
+      <c r="BI63" s="21"/>
+      <c r="BJ63" s="21"/>
+      <c r="BK63" s="21"/>
+      <c r="BL63" s="22"/>
       <c r="BM63" s="5" t="s">
         <v>91</v>
       </c>
@@ -13857,8 +13586,8 @@
       <c r="BS63" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT63" s="8" t="s">
-        <v>171</v>
+      <c r="BT63" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU63" s="5"/>
       <c r="BV63" s="5"/>
@@ -13871,27 +13600,27 @@
         <v>88</v>
       </c>
       <c r="CC63" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD63" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE63" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF63" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="CG63" s="8" t="s">
-        <v>304</v>
+        <v>651</v>
+      </c>
+      <c r="CF63" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="CG63" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="CH63" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI63" s="5"/>
       <c r="CJ63" s="5"/>
     </row>
-    <row r="64" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="1">
         <v>7917</v>
@@ -13920,8 +13649,8 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
-      <c r="O64" s="8" t="s">
-        <v>376</v>
+      <c r="O64" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>89</v>
@@ -13966,22 +13695,22 @@
       <c r="AN64" s="5"/>
       <c r="AO64" s="5"/>
       <c r="AP64" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ64" s="5"/>
       <c r="AR64" s="5"/>
       <c r="AS64" s="5"/>
-      <c r="AT64" s="18" t="s">
+      <c r="AT64" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="AU64" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="AV64" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="AW64" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="AU64" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="AV64" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="AW64" s="8" t="s">
-        <v>633</v>
       </c>
       <c r="AX64" s="5" t="s">
         <v>168</v>
@@ -13999,15 +13728,11 @@
       <c r="BG64" s="5">
         <v>1798</v>
       </c>
-      <c r="BH64" s="5"/>
-      <c r="BI64" s="5"/>
-      <c r="BJ64" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK64" s="5"/>
-      <c r="BL64" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH64" s="21"/>
+      <c r="BI64" s="21"/>
+      <c r="BJ64" s="21"/>
+      <c r="BK64" s="21"/>
+      <c r="BL64" s="22"/>
       <c r="BM64" s="5" t="s">
         <v>91</v>
       </c>
@@ -14025,8 +13750,8 @@
       <c r="BS64" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT64" s="8" t="s">
-        <v>171</v>
+      <c r="BT64" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU64" s="5"/>
       <c r="BV64" s="5"/>
@@ -14039,27 +13764,27 @@
         <v>88</v>
       </c>
       <c r="CC64" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD64" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE64" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF64" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="CG64" s="8" t="s">
-        <v>305</v>
+        <v>651</v>
+      </c>
+      <c r="CF64" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="CG64" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="CH64" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI64" s="5"/>
       <c r="CJ64" s="5"/>
     </row>
-    <row r="65" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="1">
         <v>7932</v>
@@ -14088,8 +13813,8 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-      <c r="O65" s="8" t="s">
-        <v>377</v>
+      <c r="O65" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="P65" s="5" t="s">
         <v>89</v>
@@ -14134,22 +13859,22 @@
       <c r="AN65" s="5"/>
       <c r="AO65" s="5"/>
       <c r="AP65" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ65" s="5"/>
       <c r="AR65" s="5"/>
       <c r="AS65" s="5"/>
-      <c r="AT65" s="18" t="s">
+      <c r="AT65" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU65" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="AV65" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="AW65" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="AU65" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="AV65" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="AW65" s="8" t="s">
-        <v>637</v>
       </c>
       <c r="AX65" s="5" t="s">
         <v>168</v>
@@ -14167,15 +13892,11 @@
       <c r="BG65" s="5">
         <v>1798</v>
       </c>
-      <c r="BH65" s="5"/>
-      <c r="BI65" s="5"/>
-      <c r="BJ65" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK65" s="5"/>
-      <c r="BL65" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH65" s="21"/>
+      <c r="BI65" s="21"/>
+      <c r="BJ65" s="21"/>
+      <c r="BK65" s="21"/>
+      <c r="BL65" s="22"/>
       <c r="BM65" s="5" t="s">
         <v>91</v>
       </c>
@@ -14193,8 +13914,8 @@
       <c r="BS65" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT65" s="8" t="s">
-        <v>171</v>
+      <c r="BT65" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU65" s="5"/>
       <c r="BV65" s="5"/>
@@ -14207,27 +13928,27 @@
         <v>88</v>
       </c>
       <c r="CC65" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD65" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE65" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF65" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="CG65" s="8" t="s">
-        <v>306</v>
+        <v>651</v>
+      </c>
+      <c r="CF65" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="CG65" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="CH65" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI65" s="5"/>
       <c r="CJ65" s="5"/>
     </row>
-    <row r="66" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="1">
         <v>7933</v>
@@ -14256,8 +13977,8 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="8" t="s">
-        <v>378</v>
+      <c r="O66" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>89</v>
@@ -14302,22 +14023,22 @@
       <c r="AN66" s="5"/>
       <c r="AO66" s="5"/>
       <c r="AP66" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ66" s="5"/>
       <c r="AR66" s="5"/>
       <c r="AS66" s="5"/>
-      <c r="AT66" s="18" t="s">
+      <c r="AT66" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="AU66" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="AV66" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="AW66" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="AU66" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="AV66" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="AW66" s="8" t="s">
-        <v>641</v>
       </c>
       <c r="AX66" s="5" t="s">
         <v>168</v>
@@ -14335,15 +14056,11 @@
       <c r="BG66" s="5">
         <v>1798</v>
       </c>
-      <c r="BH66" s="5"/>
-      <c r="BI66" s="5"/>
-      <c r="BJ66" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK66" s="5"/>
-      <c r="BL66" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
+      <c r="BJ66" s="21"/>
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="22"/>
       <c r="BM66" s="5" t="s">
         <v>91</v>
       </c>
@@ -14361,8 +14078,8 @@
       <c r="BS66" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT66" s="8" t="s">
-        <v>171</v>
+      <c r="BT66" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU66" s="5"/>
       <c r="BV66" s="5"/>
@@ -14375,27 +14092,27 @@
         <v>88</v>
       </c>
       <c r="CC66" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD66" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE66" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF66" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="CG66" s="8" t="s">
-        <v>307</v>
+        <v>651</v>
+      </c>
+      <c r="CF66" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="CG66" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="CH66" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI66" s="5"/>
       <c r="CJ66" s="5"/>
     </row>
-    <row r="67" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="1">
         <v>7936</v>
@@ -14424,8 +14141,8 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="8" t="s">
-        <v>379</v>
+      <c r="O67" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>89</v>
@@ -14470,22 +14187,22 @@
       <c r="AN67" s="5"/>
       <c r="AO67" s="5"/>
       <c r="AP67" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ67" s="5"/>
       <c r="AR67" s="5"/>
       <c r="AS67" s="5"/>
-      <c r="AT67" s="18" t="s">
+      <c r="AT67" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="AU67" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="AV67" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="AW67" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="AU67" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="AV67" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="AW67" s="8" t="s">
-        <v>645</v>
       </c>
       <c r="AX67" s="5" t="s">
         <v>168</v>
@@ -14503,15 +14220,11 @@
       <c r="BG67" s="5">
         <v>1798</v>
       </c>
-      <c r="BH67" s="5"/>
-      <c r="BI67" s="5"/>
-      <c r="BJ67" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK67" s="5"/>
-      <c r="BL67" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH67" s="21"/>
+      <c r="BI67" s="21"/>
+      <c r="BJ67" s="21"/>
+      <c r="BK67" s="21"/>
+      <c r="BL67" s="22"/>
       <c r="BM67" s="5" t="s">
         <v>91</v>
       </c>
@@ -14529,8 +14242,8 @@
       <c r="BS67" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT67" s="8" t="s">
-        <v>171</v>
+      <c r="BT67" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU67" s="5"/>
       <c r="BV67" s="5"/>
@@ -14543,27 +14256,27 @@
         <v>88</v>
       </c>
       <c r="CC67" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD67" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE67" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF67" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="CG67" s="8" t="s">
-        <v>308</v>
+        <v>651</v>
+      </c>
+      <c r="CF67" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="CG67" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="CH67" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI67" s="5"/>
       <c r="CJ67" s="5"/>
     </row>
-    <row r="68" spans="1:88" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="1">
         <v>7939</v>
@@ -14592,8 +14305,8 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="8" t="s">
-        <v>380</v>
+      <c r="O68" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>89</v>
@@ -14638,22 +14351,22 @@
       <c r="AN68" s="5"/>
       <c r="AO68" s="5"/>
       <c r="AP68" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ68" s="5"/>
       <c r="AR68" s="5"/>
       <c r="AS68" s="5"/>
-      <c r="AT68" s="18" t="s">
+      <c r="AT68" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="AU68" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="AV68" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="AW68" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="AU68" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV68" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="AW68" s="8" t="s">
-        <v>649</v>
       </c>
       <c r="AX68" s="5" t="s">
         <v>168</v>
@@ -14671,15 +14384,11 @@
       <c r="BG68" s="5">
         <v>1798</v>
       </c>
-      <c r="BH68" s="5"/>
-      <c r="BI68" s="5"/>
-      <c r="BJ68" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK68" s="5"/>
-      <c r="BL68" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH68" s="21"/>
+      <c r="BI68" s="21"/>
+      <c r="BJ68" s="21"/>
+      <c r="BK68" s="21"/>
+      <c r="BL68" s="22"/>
       <c r="BM68" s="5" t="s">
         <v>91</v>
       </c>
@@ -14697,8 +14406,8 @@
       <c r="BS68" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT68" s="8" t="s">
-        <v>171</v>
+      <c r="BT68" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU68" s="5"/>
       <c r="BV68" s="5"/>
@@ -14711,27 +14420,27 @@
         <v>88</v>
       </c>
       <c r="CC68" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD68" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE68" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF68" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="CG68" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="CF68" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="CG68" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="CH68" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="CH68" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="CI68" s="5"/>
       <c r="CJ68" s="5"/>
     </row>
-    <row r="69" spans="1:88" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:88" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="1">
         <v>7941</v>
@@ -14760,8 +14469,8 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
-      <c r="O69" s="8" t="s">
-        <v>381</v>
+      <c r="O69" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>89</v>
@@ -14806,22 +14515,22 @@
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
       <c r="AP69" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AQ69" s="5"/>
       <c r="AR69" s="5"/>
       <c r="AS69" s="5"/>
-      <c r="AT69" s="21" t="s">
+      <c r="AT69" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="AU69" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV69" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="AW69" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="AU69" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="AV69" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="AW69" s="8" t="s">
-        <v>653</v>
       </c>
       <c r="AX69" s="5" t="s">
         <v>168</v>
@@ -14839,15 +14548,11 @@
       <c r="BG69" s="5">
         <v>1798</v>
       </c>
-      <c r="BH69" s="5"/>
-      <c r="BI69" s="5"/>
-      <c r="BJ69" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK69" s="5"/>
-      <c r="BL69" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="BH69" s="21"/>
+      <c r="BI69" s="21"/>
+      <c r="BJ69" s="21"/>
+      <c r="BK69" s="21"/>
+      <c r="BL69" s="22"/>
       <c r="BM69" s="5" t="s">
         <v>91</v>
       </c>
@@ -14865,8 +14570,8 @@
       <c r="BS69" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BT69" s="8" t="s">
-        <v>171</v>
+      <c r="BT69" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="BU69" s="5"/>
       <c r="BV69" s="5"/>
@@ -14879,22 +14584,22 @@
         <v>88</v>
       </c>
       <c r="CC69" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CD69" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CE69" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="CF69" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="CG69" s="11" t="s">
-        <v>310</v>
+        <v>651</v>
+      </c>
+      <c r="CF69" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="CG69" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="CH69" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CI69" s="5"/>
       <c r="CJ69" s="5"/>
